--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCTOR\UTK\Papers\Nour\drive-download-20200318T203235Z-001\Manuscripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC69129-41B6-4E42-8FD0-78F8A0443B9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C9E42B-53BB-4DEC-A500-CA3664E9CACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Umf+Ut~NETL" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,18 @@
     <sheet name="Sim_CASES" sheetId="9" r:id="rId10"/>
     <sheet name="CASES_STEP" sheetId="8" r:id="rId11"/>
     <sheet name="V_DP" sheetId="13" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet3!$E$1:$E$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet3!$E$1:$E$50</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="456">
   <si>
     <t>MINIMUM FLUIDIZATION VELOCITY CALCULATIONS</t>
   </si>
@@ -1666,6 +1667,47 @@
   <si>
     <t>5.00,</t>
   </si>
+  <si>
+    <t>rp</t>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>voidF</t>
+  </si>
+  <si>
+    <t>voidF</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>h(m)</t>
+  </si>
+  <si>
+    <t>h(m)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp(m)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc(m)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>mass(kg)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErgunTest</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1860,7 +1902,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1894,6 +1936,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,7 +2021,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2084,6 +2132,7 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6820,8 +6869,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>69414</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 6">
@@ -7121,7 +7170,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 6">
@@ -38295,7 +38344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625480FF-265A-4FCF-9932-4795234AB610}">
   <dimension ref="A1:FY200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B175" sqref="B175:B200"/>
     </sheetView>
   </sheetViews>
@@ -38867,7 +38916,7 @@
         <v>145</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:G65" si="0">B2&amp;","</f>
+        <f t="shared" ref="F2:F65" si="0">B2&amp;","</f>
         <v>2,</v>
       </c>
       <c r="G2" t="s">
@@ -40925,7 +40974,7 @@
         <v>177</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" ref="F66:G125" si="1">B66&amp;","</f>
+        <f t="shared" ref="F66:F125" si="1">B66&amp;","</f>
         <v>69.2,</v>
       </c>
       <c r="G66" t="s">
@@ -42347,7 +42396,7 @@
         <v>331</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" ref="F126:G189" si="2">B126&amp;","</f>
+        <f t="shared" ref="F126:F189" si="2">B126&amp;","</f>
         <v>133.2,</v>
       </c>
       <c r="G126" t="s">
@@ -43352,7 +43401,7 @@
         <v>439</v>
       </c>
       <c r="F190" t="str">
-        <f t="shared" ref="F190:G200" si="3">B190&amp;","</f>
+        <f t="shared" ref="F190:F200" si="3">B190&amp;","</f>
         <v>200.4,</v>
       </c>
       <c r="G190" t="s">
@@ -43546,6 +43595,176 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209E1E1-E7F4-4767-A171-44374C246217}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="70">
+        <f>4*3.14/3*B5^3*B6/((1-B4)*3.14*B8^2)</f>
+        <v>1.5243136796711201E-2</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70">
+        <f>B1-B5</f>
+        <v>1.4743136796711201E-2</v>
+      </c>
+      <c r="E1" s="9">
+        <v>1.4670000000000001E-2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="70">
+        <v>0.43</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" s="70">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="70">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="70">
+        <v>1.3849999999999999E-2</v>
+      </c>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15">
+        <f>B18/B19/((1-B16)*3.141592654*B20^2)</f>
+        <v>1.4859923927170261E-2</v>
+      </c>
+      <c r="D15">
+        <f>B15-B17</f>
+        <v>1.4609923927170261E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16">
+        <v>0.37840000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>454</v>
+      </c>
+      <c r="B18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.6">
+      <c r="A19" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19">
+        <v>2670.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>447</v>
+      </c>
+      <c r="B20">
+        <v>2.5399999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C9A762-68B2-4D4B-8E25-B90A5BDC61CE}">
   <dimension ref="A1:I50"/>
   <sheetViews>
@@ -44549,7 +44768,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C9E42B-53BB-4DEC-A500-CA3664E9CACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79E135-484D-4F20-BF86-9EE7C70B748D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43596,10 +43596,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209E1E1-E7F4-4767-A171-44374C246217}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -43608,7 +43608,7 @@
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="A1" s="70" t="s">
         <v>451</v>
       </c>
@@ -43627,20 +43627,49 @@
       <c r="F1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>K1+0.0025</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="0">K2+0.0025</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="70" t="s">
         <v>449</v>
       </c>
@@ -43649,8 +43678,18 @@
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="70" t="s">
         <v>452</v>
       </c>
@@ -43659,8 +43698,18 @@
       </c>
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="70" t="s">
         <v>446</v>
       </c>
@@ -43669,14 +43718,34 @@
       </c>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1.2600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="70"/>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.5100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="70" t="s">
         <v>453</v>
       </c>
@@ -43685,76 +43754,2099 @@
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="70"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>2.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="70"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>2.5099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2.7599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>3.0099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>3.2599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>450</v>
       </c>
       <c r="B15">
         <f>B18/B19/((1-B16)*3.141592654*B20^2)</f>
-        <v>1.4859923927170261E-2</v>
+        <v>5.9439695708681031E-3</v>
       </c>
       <c r="D15">
         <f>B15-B17</f>
-        <v>1.4609923927170261E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>5.6939695708681029E-3</v>
+      </c>
+      <c r="F15">
+        <v>0.44</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>3.5099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>448</v>
       </c>
       <c r="B16">
         <v>0.37840000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>3.7600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>445</v>
       </c>
       <c r="B17">
         <v>2.5000000000000001E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>4.0100000000000004E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>454</v>
       </c>
       <c r="B18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.6">
+        <v>0.02</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>4.2600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.6">
       <c r="A19" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B19">
         <v>2670.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>4.5100000000000008E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>447</v>
       </c>
       <c r="B20">
         <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>4.760000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>5.0100000000000013E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>5.2600000000000015E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>5.5100000000000017E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>5.7600000000000019E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>6.0100000000000021E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>6.2600000000000017E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>6.5100000000000019E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>6.7600000000000021E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>7.0100000000000023E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>7.2600000000000026E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>7.5100000000000028E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>7.760000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>8.0100000000000032E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>8.2600000000000035E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11">
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>8.5100000000000037E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11">
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>8.7600000000000039E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>9.0100000000000041E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>9.2600000000000043E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11">
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>9.5100000000000046E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11">
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>9.7600000000000048E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>0.10010000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>0.10260000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>0.10510000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11">
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f>K43+0.0025</f>
+        <v>0.10760000000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>0.11010000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11">
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>0.11260000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>0.11510000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11">
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>0.11760000000000007</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11">
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>0.12010000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>0.12260000000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>0.12510000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11">
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>0.12760000000000007</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11">
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>0.13010000000000008</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11">
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>0.13260000000000008</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11">
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>0.13510000000000008</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>0.13760000000000008</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>0.14010000000000009</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11">
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>0.14260000000000009</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11">
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>0.14510000000000009</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11">
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>0.14760000000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11">
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>0.15010000000000009</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11">
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>0.1526000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11">
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>0.1551000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11">
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>0.1576000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11">
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>0.1601000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11">
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>0.16260000000000011</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11">
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="1">K66+0.0025</f>
+        <v>0.16510000000000011</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11">
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>0.16760000000000011</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11">
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>0.17010000000000011</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>0.17260000000000011</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>0.17510000000000012</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>0.17760000000000012</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="1"/>
+        <v>0.18010000000000012</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11">
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="1"/>
+        <v>0.18260000000000012</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11">
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="1"/>
+        <v>0.18510000000000013</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11">
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="1"/>
+        <v>0.18760000000000013</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11">
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="1"/>
+        <v>0.19010000000000013</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11">
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="1"/>
+        <v>0.19260000000000013</v>
+      </c>
+    </row>
+    <row r="79" spans="9:11">
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="1"/>
+        <v>0.19510000000000013</v>
+      </c>
+    </row>
+    <row r="80" spans="9:11">
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="1"/>
+        <v>0.19760000000000014</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11">
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="1"/>
+        <v>0.20010000000000014</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="1"/>
+        <v>0.20260000000000014</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11">
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="1"/>
+        <v>0.20510000000000014</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11">
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="1"/>
+        <v>0.20760000000000015</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11">
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="1"/>
+        <v>0.21010000000000015</v>
+      </c>
+    </row>
+    <row r="86" spans="9:11">
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="1"/>
+        <v>0.21260000000000015</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11">
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="1"/>
+        <v>0.21510000000000015</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11">
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="1"/>
+        <v>0.21760000000000015</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11">
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="1"/>
+        <v>0.22010000000000016</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11">
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="1"/>
+        <v>0.22260000000000016</v>
+      </c>
+    </row>
+    <row r="91" spans="9:11">
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="1"/>
+        <v>0.22510000000000016</v>
+      </c>
+    </row>
+    <row r="92" spans="9:11">
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="1"/>
+        <v>0.22760000000000016</v>
+      </c>
+    </row>
+    <row r="93" spans="9:11">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="1"/>
+        <v>0.23010000000000017</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="1"/>
+        <v>0.23260000000000017</v>
+      </c>
+    </row>
+    <row r="95" spans="9:11">
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="1"/>
+        <v>0.23510000000000017</v>
+      </c>
+    </row>
+    <row r="96" spans="9:11">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="1"/>
+        <v>0.23760000000000017</v>
+      </c>
+    </row>
+    <row r="97" spans="9:11">
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="1"/>
+        <v>0.24010000000000017</v>
+      </c>
+    </row>
+    <row r="98" spans="9:11">
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="1"/>
+        <v>0.24260000000000018</v>
+      </c>
+    </row>
+    <row r="99" spans="9:11">
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="1"/>
+        <v>0.24510000000000018</v>
+      </c>
+    </row>
+    <row r="100" spans="9:11">
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="1"/>
+        <v>0.24760000000000018</v>
+      </c>
+    </row>
+    <row r="101" spans="9:11">
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="1"/>
+        <v>0.25010000000000016</v>
+      </c>
+    </row>
+    <row r="102" spans="9:11">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="1"/>
+        <v>0.25260000000000016</v>
+      </c>
+    </row>
+    <row r="103" spans="9:11">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="1"/>
+        <v>0.25510000000000016</v>
+      </c>
+    </row>
+    <row r="104" spans="9:11">
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="1"/>
+        <v>0.25760000000000016</v>
+      </c>
+    </row>
+    <row r="105" spans="9:11">
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="1"/>
+        <v>0.26010000000000016</v>
+      </c>
+    </row>
+    <row r="106" spans="9:11">
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="1"/>
+        <v>0.26260000000000017</v>
+      </c>
+    </row>
+    <row r="107" spans="9:11">
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="1"/>
+        <v>0.26510000000000017</v>
+      </c>
+    </row>
+    <row r="108" spans="9:11">
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="1"/>
+        <v>0.26760000000000017</v>
+      </c>
+    </row>
+    <row r="109" spans="9:11">
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="1"/>
+        <v>0.27010000000000017</v>
+      </c>
+    </row>
+    <row r="110" spans="9:11">
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="1"/>
+        <v>0.27260000000000018</v>
+      </c>
+    </row>
+    <row r="111" spans="9:11">
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="1"/>
+        <v>0.27510000000000018</v>
+      </c>
+    </row>
+    <row r="112" spans="9:11">
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="1"/>
+        <v>0.27760000000000018</v>
+      </c>
+    </row>
+    <row r="113" spans="9:11">
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="1"/>
+        <v>0.28010000000000018</v>
+      </c>
+    </row>
+    <row r="114" spans="9:11">
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="1"/>
+        <v>0.28260000000000018</v>
+      </c>
+    </row>
+    <row r="115" spans="9:11">
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="1"/>
+        <v>0.28510000000000019</v>
+      </c>
+    </row>
+    <row r="116" spans="9:11">
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="1"/>
+        <v>0.28760000000000019</v>
+      </c>
+    </row>
+    <row r="117" spans="9:11">
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="1"/>
+        <v>0.29010000000000019</v>
+      </c>
+    </row>
+    <row r="118" spans="9:11">
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="1"/>
+        <v>0.29260000000000019</v>
+      </c>
+    </row>
+    <row r="119" spans="9:11">
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="1"/>
+        <v>0.2951000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="9:11">
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="1"/>
+        <v>0.2976000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="9:11">
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="1"/>
+        <v>0.3001000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="9:11">
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="1"/>
+        <v>0.3026000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="9:11">
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="1"/>
+        <v>0.3051000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="9:11">
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="1"/>
+        <v>0.30760000000000021</v>
+      </c>
+    </row>
+    <row r="125" spans="9:11">
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="1"/>
+        <v>0.31010000000000021</v>
+      </c>
+    </row>
+    <row r="126" spans="9:11">
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="1"/>
+        <v>0.31260000000000021</v>
+      </c>
+    </row>
+    <row r="127" spans="9:11">
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="1"/>
+        <v>0.31510000000000021</v>
+      </c>
+    </row>
+    <row r="128" spans="9:11">
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="1"/>
+        <v>0.31760000000000022</v>
+      </c>
+    </row>
+    <row r="129" spans="9:11">
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="1"/>
+        <v>0.32010000000000022</v>
+      </c>
+    </row>
+    <row r="130" spans="9:11">
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="1"/>
+        <v>0.32260000000000022</v>
+      </c>
+    </row>
+    <row r="131" spans="9:11">
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K194" si="2">K130+0.0025</f>
+        <v>0.32510000000000022</v>
+      </c>
+    </row>
+    <row r="132" spans="9:11">
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="2"/>
+        <v>0.32760000000000022</v>
+      </c>
+    </row>
+    <row r="133" spans="9:11">
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="2"/>
+        <v>0.33010000000000023</v>
+      </c>
+    </row>
+    <row r="134" spans="9:11">
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="2"/>
+        <v>0.33260000000000023</v>
+      </c>
+    </row>
+    <row r="135" spans="9:11">
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="2"/>
+        <v>0.33510000000000023</v>
+      </c>
+    </row>
+    <row r="136" spans="9:11">
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="2"/>
+        <v>0.33760000000000023</v>
+      </c>
+    </row>
+    <row r="137" spans="9:11">
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="2"/>
+        <v>0.34010000000000024</v>
+      </c>
+    </row>
+    <row r="138" spans="9:11">
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="2"/>
+        <v>0.34260000000000024</v>
+      </c>
+    </row>
+    <row r="139" spans="9:11">
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="2"/>
+        <v>0.34510000000000024</v>
+      </c>
+    </row>
+    <row r="140" spans="9:11">
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="2"/>
+        <v>0.34760000000000024</v>
+      </c>
+    </row>
+    <row r="141" spans="9:11">
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="2"/>
+        <v>0.35010000000000024</v>
+      </c>
+    </row>
+    <row r="142" spans="9:11">
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="2"/>
+        <v>0.35260000000000025</v>
+      </c>
+    </row>
+    <row r="143" spans="9:11">
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="2"/>
+        <v>0.35510000000000025</v>
+      </c>
+    </row>
+    <row r="144" spans="9:11">
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="2"/>
+        <v>0.35760000000000025</v>
+      </c>
+    </row>
+    <row r="145" spans="9:11">
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="2"/>
+        <v>0.36010000000000025</v>
+      </c>
+    </row>
+    <row r="146" spans="9:11">
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="2"/>
+        <v>0.36260000000000026</v>
+      </c>
+    </row>
+    <row r="147" spans="9:11">
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="2"/>
+        <v>0.36510000000000026</v>
+      </c>
+    </row>
+    <row r="148" spans="9:11">
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="2"/>
+        <v>0.36760000000000026</v>
+      </c>
+    </row>
+    <row r="149" spans="9:11">
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="2"/>
+        <v>0.37010000000000026</v>
+      </c>
+    </row>
+    <row r="150" spans="9:11">
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="2"/>
+        <v>0.37260000000000026</v>
+      </c>
+    </row>
+    <row r="151" spans="9:11">
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="2"/>
+        <v>0.37510000000000027</v>
+      </c>
+    </row>
+    <row r="152" spans="9:11">
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="2"/>
+        <v>0.37760000000000027</v>
+      </c>
+    </row>
+    <row r="153" spans="9:11">
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="2"/>
+        <v>0.38010000000000027</v>
+      </c>
+    </row>
+    <row r="154" spans="9:11">
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="2"/>
+        <v>0.38260000000000027</v>
+      </c>
+    </row>
+    <row r="155" spans="9:11">
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="2"/>
+        <v>0.38510000000000028</v>
+      </c>
+    </row>
+    <row r="156" spans="9:11">
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="2"/>
+        <v>0.38760000000000028</v>
+      </c>
+    </row>
+    <row r="157" spans="9:11">
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="2"/>
+        <v>0.39010000000000028</v>
+      </c>
+    </row>
+    <row r="158" spans="9:11">
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="2"/>
+        <v>0.39260000000000028</v>
+      </c>
+    </row>
+    <row r="159" spans="9:11">
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="2"/>
+        <v>0.39510000000000028</v>
+      </c>
+    </row>
+    <row r="160" spans="9:11">
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="2"/>
+        <v>0.39760000000000029</v>
+      </c>
+    </row>
+    <row r="161" spans="9:11">
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="2"/>
+        <v>0.40010000000000029</v>
+      </c>
+    </row>
+    <row r="162" spans="9:11">
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="2"/>
+        <v>0.40260000000000029</v>
+      </c>
+    </row>
+    <row r="163" spans="9:11">
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="2"/>
+        <v>0.40510000000000029</v>
+      </c>
+    </row>
+    <row r="164" spans="9:11">
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="2"/>
+        <v>0.4076000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="9:11">
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="2"/>
+        <v>0.4101000000000003</v>
+      </c>
+    </row>
+    <row r="166" spans="9:11">
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="2"/>
+        <v>0.4126000000000003</v>
+      </c>
+    </row>
+    <row r="167" spans="9:11">
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="2"/>
+        <v>0.4151000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="9:11">
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="2"/>
+        <v>0.4176000000000003</v>
+      </c>
+    </row>
+    <row r="169" spans="9:11">
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="2"/>
+        <v>0.42010000000000031</v>
+      </c>
+    </row>
+    <row r="170" spans="9:11">
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="2"/>
+        <v>0.42260000000000031</v>
+      </c>
+    </row>
+    <row r="171" spans="9:11">
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="2"/>
+        <v>0.42510000000000031</v>
+      </c>
+    </row>
+    <row r="172" spans="9:11">
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="2"/>
+        <v>0.42760000000000031</v>
+      </c>
+    </row>
+    <row r="173" spans="9:11">
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="2"/>
+        <v>0.43010000000000032</v>
+      </c>
+    </row>
+    <row r="174" spans="9:11">
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="2"/>
+        <v>0.43260000000000032</v>
+      </c>
+    </row>
+    <row r="175" spans="9:11">
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="2"/>
+        <v>0.43510000000000032</v>
+      </c>
+    </row>
+    <row r="176" spans="9:11">
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="2"/>
+        <v>0.43760000000000032</v>
+      </c>
+    </row>
+    <row r="177" spans="9:11">
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="2"/>
+        <v>0.44010000000000032</v>
       </c>
     </row>
   </sheetData>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79E135-484D-4F20-BF86-9EE7C70B748D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE63594-7588-4651-91DF-96D360CAA15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="458">
   <si>
     <t>MINIMUM FLUIDIZATION VELOCITY CALCULATIONS</t>
   </si>
@@ -1706,6 +1706,14 @@
   </si>
   <si>
     <t>ErgunTest</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -43596,19 +43604,22 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209E1E1-E7F4-4767-A171-44374C246217}">
-  <dimension ref="A1:K177"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="8" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="2.77734375" customWidth="1"/>
+    <col min="12" max="12" width="2.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="70" t="s">
         <v>451</v>
       </c>
@@ -43627,6 +43638,9 @@
       <c r="F1" t="s">
         <v>455</v>
       </c>
+      <c r="H1" t="s">
+        <v>456</v>
+      </c>
       <c r="I1">
         <v>0</v>
       </c>
@@ -43636,12 +43650,18 @@
       <c r="K1">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
+      <c r="H2" t="s">
+        <v>456</v>
+      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -43652,12 +43672,18 @@
         <f>K1+0.0025</f>
         <v>2.5999999999999999E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
+      <c r="H3" t="s">
+        <v>456</v>
+      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -43668,8 +43694,11 @@
         <f t="shared" ref="K3:K66" si="0">K2+0.0025</f>
         <v>5.1000000000000004E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="70" t="s">
         <v>449</v>
       </c>
@@ -43678,6 +43707,9 @@
       </c>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
+      <c r="H4" t="s">
+        <v>456</v>
+      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -43688,8 +43720,11 @@
         <f t="shared" si="0"/>
         <v>7.6000000000000009E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="70" t="s">
         <v>452</v>
       </c>
@@ -43698,6 +43733,9 @@
       </c>
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
+      <c r="H5" t="s">
+        <v>456</v>
+      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -43708,8 +43746,11 @@
         <f t="shared" si="0"/>
         <v>1.0100000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="70" t="s">
         <v>446</v>
       </c>
@@ -43718,6 +43759,9 @@
       </c>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
+      <c r="H6" t="s">
+        <v>456</v>
+      </c>
       <c r="I6">
         <v>0</v>
       </c>
@@ -43728,12 +43772,18 @@
         <f t="shared" si="0"/>
         <v>1.2600000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="70"/>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
+      <c r="H7" t="s">
+        <v>456</v>
+      </c>
       <c r="I7">
         <v>0</v>
       </c>
@@ -43744,8 +43794,11 @@
         <f t="shared" si="0"/>
         <v>1.5100000000000002E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="70" t="s">
         <v>453</v>
       </c>
@@ -43754,6 +43807,9 @@
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
+      <c r="H8" t="s">
+        <v>456</v>
+      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -43764,12 +43820,18 @@
         <f t="shared" si="0"/>
         <v>1.7600000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="70"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
+      <c r="H9" t="s">
+        <v>456</v>
+      </c>
       <c r="I9">
         <v>0</v>
       </c>
@@ -43780,12 +43842,18 @@
         <f t="shared" si="0"/>
         <v>2.01E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
+      <c r="H10" t="s">
+        <v>456</v>
+      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -43796,12 +43864,18 @@
         <f t="shared" si="0"/>
         <v>2.2599999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="70"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
+      <c r="H11" t="s">
+        <v>456</v>
+      </c>
       <c r="I11">
         <v>0</v>
       </c>
@@ -43812,8 +43886,14 @@
         <f t="shared" si="0"/>
         <v>2.5099999999999997E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" t="s">
+        <v>456</v>
+      </c>
       <c r="I12">
         <v>0</v>
       </c>
@@ -43824,8 +43904,14 @@
         <f t="shared" si="0"/>
         <v>2.7599999999999996E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" t="s">
+        <v>456</v>
+      </c>
       <c r="I13">
         <v>0</v>
       </c>
@@ -43836,8 +43922,14 @@
         <f t="shared" si="0"/>
         <v>3.0099999999999995E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" t="s">
+        <v>456</v>
+      </c>
       <c r="I14">
         <v>0</v>
       </c>
@@ -43848,8 +43940,11 @@
         <f t="shared" si="0"/>
         <v>3.2599999999999997E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -43864,6 +43959,9 @@
       <c r="F15">
         <v>0.44</v>
       </c>
+      <c r="H15" t="s">
+        <v>456</v>
+      </c>
       <c r="I15">
         <v>0</v>
       </c>
@@ -43874,13 +43972,19 @@
         <f t="shared" si="0"/>
         <v>3.5099999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>448</v>
       </c>
       <c r="B16">
         <v>0.37840000000000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>456</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -43892,13 +43996,19 @@
         <f t="shared" si="0"/>
         <v>3.7600000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>445</v>
       </c>
       <c r="B17">
         <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>456</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -43910,13 +44020,19 @@
         <f t="shared" si="0"/>
         <v>4.0100000000000004E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>454</v>
       </c>
       <c r="B18">
         <v>0.02</v>
+      </c>
+      <c r="H18" t="s">
+        <v>456</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -43928,13 +44044,19 @@
         <f t="shared" si="0"/>
         <v>4.2600000000000006E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.6">
+      <c r="L18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.6">
       <c r="A19" s="19" t="s">
         <v>96</v>
       </c>
       <c r="B19">
         <v>2670.7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>456</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -43946,13 +44068,19 @@
         <f t="shared" si="0"/>
         <v>4.5100000000000008E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>447</v>
       </c>
       <c r="B20">
         <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>456</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -43964,8 +44092,14 @@
         <f t="shared" si="0"/>
         <v>4.760000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="H21" t="s">
+        <v>456</v>
+      </c>
       <c r="I21">
         <v>0</v>
       </c>
@@ -43976,8 +44110,14 @@
         <f t="shared" si="0"/>
         <v>5.0100000000000013E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="H22" t="s">
+        <v>456</v>
+      </c>
       <c r="I22">
         <v>0</v>
       </c>
@@ -43988,8 +44128,14 @@
         <f t="shared" si="0"/>
         <v>5.2600000000000015E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="H23" t="s">
+        <v>456</v>
+      </c>
       <c r="I23">
         <v>0</v>
       </c>
@@ -44000,8 +44146,14 @@
         <f t="shared" si="0"/>
         <v>5.5100000000000017E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="H24" t="s">
+        <v>456</v>
+      </c>
       <c r="I24">
         <v>0</v>
       </c>
@@ -44012,8 +44164,14 @@
         <f t="shared" si="0"/>
         <v>5.7600000000000019E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="H25" t="s">
+        <v>456</v>
+      </c>
       <c r="I25">
         <v>0</v>
       </c>
@@ -44024,8 +44182,14 @@
         <f t="shared" si="0"/>
         <v>6.0100000000000021E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="H26" t="s">
+        <v>456</v>
+      </c>
       <c r="I26">
         <v>0</v>
       </c>
@@ -44036,8 +44200,14 @@
         <f t="shared" si="0"/>
         <v>6.2600000000000017E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="H27" t="s">
+        <v>456</v>
+      </c>
       <c r="I27">
         <v>0</v>
       </c>
@@ -44048,8 +44218,14 @@
         <f t="shared" si="0"/>
         <v>6.5100000000000019E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="H28" t="s">
+        <v>456</v>
+      </c>
       <c r="I28">
         <v>0</v>
       </c>
@@ -44060,8 +44236,14 @@
         <f t="shared" si="0"/>
         <v>6.7600000000000021E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="H29" t="s">
+        <v>456</v>
+      </c>
       <c r="I29">
         <v>0</v>
       </c>
@@ -44072,8 +44254,14 @@
         <f t="shared" si="0"/>
         <v>7.0100000000000023E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="H30" t="s">
+        <v>456</v>
+      </c>
       <c r="I30">
         <v>0</v>
       </c>
@@ -44084,8 +44272,14 @@
         <f t="shared" si="0"/>
         <v>7.2600000000000026E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="H31" t="s">
+        <v>456</v>
+      </c>
       <c r="I31">
         <v>0</v>
       </c>
@@ -44096,8 +44290,14 @@
         <f t="shared" si="0"/>
         <v>7.5100000000000028E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="H32" t="s">
+        <v>456</v>
+      </c>
       <c r="I32">
         <v>0</v>
       </c>
@@ -44108,8 +44308,14 @@
         <f t="shared" si="0"/>
         <v>7.760000000000003E-2</v>
       </c>
-    </row>
-    <row r="33" spans="9:11">
+      <c r="L32" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12">
+      <c r="H33" t="s">
+        <v>456</v>
+      </c>
       <c r="I33">
         <v>0</v>
       </c>
@@ -44120,8 +44326,14 @@
         <f t="shared" si="0"/>
         <v>8.0100000000000032E-2</v>
       </c>
-    </row>
-    <row r="34" spans="9:11">
+      <c r="L33" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12">
+      <c r="H34" t="s">
+        <v>456</v>
+      </c>
       <c r="I34">
         <v>0</v>
       </c>
@@ -44132,8 +44344,14 @@
         <f t="shared" si="0"/>
         <v>8.2600000000000035E-2</v>
       </c>
-    </row>
-    <row r="35" spans="9:11">
+      <c r="L34" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12">
+      <c r="H35" t="s">
+        <v>456</v>
+      </c>
       <c r="I35">
         <v>0</v>
       </c>
@@ -44144,8 +44362,14 @@
         <f t="shared" si="0"/>
         <v>8.5100000000000037E-2</v>
       </c>
-    </row>
-    <row r="36" spans="9:11">
+      <c r="L35" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12">
+      <c r="H36" t="s">
+        <v>456</v>
+      </c>
       <c r="I36">
         <v>0</v>
       </c>
@@ -44156,8 +44380,14 @@
         <f t="shared" si="0"/>
         <v>8.7600000000000039E-2</v>
       </c>
-    </row>
-    <row r="37" spans="9:11">
+      <c r="L36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="8:12">
+      <c r="H37" t="s">
+        <v>456</v>
+      </c>
       <c r="I37">
         <v>0</v>
       </c>
@@ -44168,8 +44398,14 @@
         <f t="shared" si="0"/>
         <v>9.0100000000000041E-2</v>
       </c>
-    </row>
-    <row r="38" spans="9:11">
+      <c r="L37" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="8:12">
+      <c r="H38" t="s">
+        <v>456</v>
+      </c>
       <c r="I38">
         <v>0</v>
       </c>
@@ -44180,8 +44416,14 @@
         <f t="shared" si="0"/>
         <v>9.2600000000000043E-2</v>
       </c>
-    </row>
-    <row r="39" spans="9:11">
+      <c r="L38" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="39" spans="8:12">
+      <c r="H39" t="s">
+        <v>456</v>
+      </c>
       <c r="I39">
         <v>0</v>
       </c>
@@ -44192,8 +44434,14 @@
         <f t="shared" si="0"/>
         <v>9.5100000000000046E-2</v>
       </c>
-    </row>
-    <row r="40" spans="9:11">
+      <c r="L39" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="8:12">
+      <c r="H40" t="s">
+        <v>456</v>
+      </c>
       <c r="I40">
         <v>0</v>
       </c>
@@ -44204,8 +44452,14 @@
         <f t="shared" si="0"/>
         <v>9.7600000000000048E-2</v>
       </c>
-    </row>
-    <row r="41" spans="9:11">
+      <c r="L40" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="8:12">
+      <c r="H41" t="s">
+        <v>456</v>
+      </c>
       <c r="I41">
         <v>0</v>
       </c>
@@ -44216,8 +44470,14 @@
         <f t="shared" si="0"/>
         <v>0.10010000000000005</v>
       </c>
-    </row>
-    <row r="42" spans="9:11">
+      <c r="L41" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="8:12">
+      <c r="H42" t="s">
+        <v>456</v>
+      </c>
       <c r="I42">
         <v>0</v>
       </c>
@@ -44228,8 +44488,14 @@
         <f t="shared" si="0"/>
         <v>0.10260000000000005</v>
       </c>
-    </row>
-    <row r="43" spans="9:11">
+      <c r="L42" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="43" spans="8:12">
+      <c r="H43" t="s">
+        <v>456</v>
+      </c>
       <c r="I43">
         <v>0</v>
       </c>
@@ -44240,8 +44506,14 @@
         <f t="shared" si="0"/>
         <v>0.10510000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="9:11">
+      <c r="L43" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="8:12">
+      <c r="H44" t="s">
+        <v>456</v>
+      </c>
       <c r="I44">
         <v>0</v>
       </c>
@@ -44252,8 +44524,14 @@
         <f>K43+0.0025</f>
         <v>0.10760000000000006</v>
       </c>
-    </row>
-    <row r="45" spans="9:11">
+      <c r="L44" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="8:12">
+      <c r="H45" t="s">
+        <v>456</v>
+      </c>
       <c r="I45">
         <v>0</v>
       </c>
@@ -44264,8 +44542,14 @@
         <f t="shared" si="0"/>
         <v>0.11010000000000006</v>
       </c>
-    </row>
-    <row r="46" spans="9:11">
+      <c r="L45" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="46" spans="8:12">
+      <c r="H46" t="s">
+        <v>456</v>
+      </c>
       <c r="I46">
         <v>0</v>
       </c>
@@ -44276,8 +44560,14 @@
         <f t="shared" si="0"/>
         <v>0.11260000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="9:11">
+      <c r="L46" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="47" spans="8:12">
+      <c r="H47" t="s">
+        <v>456</v>
+      </c>
       <c r="I47">
         <v>0</v>
       </c>
@@ -44288,8 +44578,14 @@
         <f t="shared" si="0"/>
         <v>0.11510000000000006</v>
       </c>
-    </row>
-    <row r="48" spans="9:11">
+      <c r="L47" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="48" spans="8:12">
+      <c r="H48" t="s">
+        <v>456</v>
+      </c>
       <c r="I48">
         <v>0</v>
       </c>
@@ -44300,8 +44596,14 @@
         <f t="shared" si="0"/>
         <v>0.11760000000000007</v>
       </c>
-    </row>
-    <row r="49" spans="9:11">
+      <c r="L48" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="49" spans="8:12">
+      <c r="H49" t="s">
+        <v>456</v>
+      </c>
       <c r="I49">
         <v>0</v>
       </c>
@@ -44312,8 +44614,14 @@
         <f t="shared" si="0"/>
         <v>0.12010000000000007</v>
       </c>
-    </row>
-    <row r="50" spans="9:11">
+      <c r="L49" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="8:12">
+      <c r="H50" t="s">
+        <v>456</v>
+      </c>
       <c r="I50">
         <v>0</v>
       </c>
@@ -44324,8 +44632,14 @@
         <f t="shared" si="0"/>
         <v>0.12260000000000007</v>
       </c>
-    </row>
-    <row r="51" spans="9:11">
+      <c r="L50" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="8:12">
+      <c r="H51" t="s">
+        <v>456</v>
+      </c>
       <c r="I51">
         <v>0</v>
       </c>
@@ -44336,8 +44650,14 @@
         <f t="shared" si="0"/>
         <v>0.12510000000000007</v>
       </c>
-    </row>
-    <row r="52" spans="9:11">
+      <c r="L51" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12">
+      <c r="H52" t="s">
+        <v>456</v>
+      </c>
       <c r="I52">
         <v>0</v>
       </c>
@@ -44348,8 +44668,14 @@
         <f t="shared" si="0"/>
         <v>0.12760000000000007</v>
       </c>
-    </row>
-    <row r="53" spans="9:11">
+      <c r="L52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="8:12">
+      <c r="H53" t="s">
+        <v>456</v>
+      </c>
       <c r="I53">
         <v>0</v>
       </c>
@@ -44360,8 +44686,14 @@
         <f t="shared" si="0"/>
         <v>0.13010000000000008</v>
       </c>
-    </row>
-    <row r="54" spans="9:11">
+      <c r="L53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="8:12">
+      <c r="H54" t="s">
+        <v>456</v>
+      </c>
       <c r="I54">
         <v>0</v>
       </c>
@@ -44372,8 +44704,14 @@
         <f t="shared" si="0"/>
         <v>0.13260000000000008</v>
       </c>
-    </row>
-    <row r="55" spans="9:11">
+      <c r="L54" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="55" spans="8:12">
+      <c r="H55" t="s">
+        <v>456</v>
+      </c>
       <c r="I55">
         <v>0</v>
       </c>
@@ -44384,8 +44722,14 @@
         <f t="shared" si="0"/>
         <v>0.13510000000000008</v>
       </c>
-    </row>
-    <row r="56" spans="9:11">
+      <c r="L55" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56" spans="8:12">
+      <c r="H56" t="s">
+        <v>456</v>
+      </c>
       <c r="I56">
         <v>0</v>
       </c>
@@ -44396,8 +44740,14 @@
         <f t="shared" si="0"/>
         <v>0.13760000000000008</v>
       </c>
-    </row>
-    <row r="57" spans="9:11">
+      <c r="L56" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="8:12">
+      <c r="H57" t="s">
+        <v>456</v>
+      </c>
       <c r="I57">
         <v>0</v>
       </c>
@@ -44408,8 +44758,14 @@
         <f t="shared" si="0"/>
         <v>0.14010000000000009</v>
       </c>
-    </row>
-    <row r="58" spans="9:11">
+      <c r="L57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58" spans="8:12">
+      <c r="H58" t="s">
+        <v>456</v>
+      </c>
       <c r="I58">
         <v>0</v>
       </c>
@@ -44420,8 +44776,14 @@
         <f t="shared" si="0"/>
         <v>0.14260000000000009</v>
       </c>
-    </row>
-    <row r="59" spans="9:11">
+      <c r="L58" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="8:12">
+      <c r="H59" t="s">
+        <v>456</v>
+      </c>
       <c r="I59">
         <v>0</v>
       </c>
@@ -44432,8 +44794,14 @@
         <f t="shared" si="0"/>
         <v>0.14510000000000009</v>
       </c>
-    </row>
-    <row r="60" spans="9:11">
+      <c r="L59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="8:12">
+      <c r="H60" t="s">
+        <v>456</v>
+      </c>
       <c r="I60">
         <v>0</v>
       </c>
@@ -44444,8 +44812,14 @@
         <f t="shared" si="0"/>
         <v>0.14760000000000009</v>
       </c>
-    </row>
-    <row r="61" spans="9:11">
+      <c r="L60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61" spans="8:12">
+      <c r="H61" t="s">
+        <v>456</v>
+      </c>
       <c r="I61">
         <v>0</v>
       </c>
@@ -44456,8 +44830,14 @@
         <f t="shared" si="0"/>
         <v>0.15010000000000009</v>
       </c>
-    </row>
-    <row r="62" spans="9:11">
+      <c r="L61" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="62" spans="8:12">
+      <c r="H62" t="s">
+        <v>456</v>
+      </c>
       <c r="I62">
         <v>0</v>
       </c>
@@ -44468,8 +44848,14 @@
         <f t="shared" si="0"/>
         <v>0.1526000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="9:11">
+      <c r="L62" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="63" spans="8:12">
+      <c r="H63" t="s">
+        <v>456</v>
+      </c>
       <c r="I63">
         <v>0</v>
       </c>
@@ -44480,8 +44866,14 @@
         <f t="shared" si="0"/>
         <v>0.1551000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="9:11">
+      <c r="L63" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="64" spans="8:12">
+      <c r="H64" t="s">
+        <v>456</v>
+      </c>
       <c r="I64">
         <v>0</v>
       </c>
@@ -44492,8 +44884,14 @@
         <f t="shared" si="0"/>
         <v>0.1576000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="9:11">
+      <c r="L64" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="65" spans="8:12">
+      <c r="H65" t="s">
+        <v>456</v>
+      </c>
       <c r="I65">
         <v>0</v>
       </c>
@@ -44504,8 +44902,14 @@
         <f t="shared" si="0"/>
         <v>0.1601000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="9:11">
+      <c r="L65" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="8:12">
+      <c r="H66" t="s">
+        <v>456</v>
+      </c>
       <c r="I66">
         <v>0</v>
       </c>
@@ -44516,8 +44920,14 @@
         <f t="shared" si="0"/>
         <v>0.16260000000000011</v>
       </c>
-    </row>
-    <row r="67" spans="9:11">
+      <c r="L66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12">
+      <c r="H67" t="s">
+        <v>456</v>
+      </c>
       <c r="I67">
         <v>0</v>
       </c>
@@ -44528,8 +44938,14 @@
         <f t="shared" ref="K67:K130" si="1">K66+0.0025</f>
         <v>0.16510000000000011</v>
       </c>
-    </row>
-    <row r="68" spans="9:11">
+      <c r="L67" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="68" spans="8:12">
+      <c r="H68" t="s">
+        <v>456</v>
+      </c>
       <c r="I68">
         <v>0</v>
       </c>
@@ -44540,8 +44956,14 @@
         <f t="shared" si="1"/>
         <v>0.16760000000000011</v>
       </c>
-    </row>
-    <row r="69" spans="9:11">
+      <c r="L68" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="8:12">
+      <c r="H69" t="s">
+        <v>456</v>
+      </c>
       <c r="I69">
         <v>0</v>
       </c>
@@ -44552,8 +44974,14 @@
         <f t="shared" si="1"/>
         <v>0.17010000000000011</v>
       </c>
-    </row>
-    <row r="70" spans="9:11">
+      <c r="L69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70" spans="8:12">
+      <c r="H70" t="s">
+        <v>456</v>
+      </c>
       <c r="I70">
         <v>0</v>
       </c>
@@ -44564,8 +44992,14 @@
         <f t="shared" si="1"/>
         <v>0.17260000000000011</v>
       </c>
-    </row>
-    <row r="71" spans="9:11">
+      <c r="L70" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12">
+      <c r="H71" t="s">
+        <v>456</v>
+      </c>
       <c r="I71">
         <v>0</v>
       </c>
@@ -44576,8 +45010,14 @@
         <f t="shared" si="1"/>
         <v>0.17510000000000012</v>
       </c>
-    </row>
-    <row r="72" spans="9:11">
+      <c r="L71" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12">
+      <c r="H72" t="s">
+        <v>456</v>
+      </c>
       <c r="I72">
         <v>0</v>
       </c>
@@ -44588,8 +45028,14 @@
         <f t="shared" si="1"/>
         <v>0.17760000000000012</v>
       </c>
-    </row>
-    <row r="73" spans="9:11">
+      <c r="L72" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="73" spans="8:12">
+      <c r="H73" t="s">
+        <v>456</v>
+      </c>
       <c r="I73">
         <v>0</v>
       </c>
@@ -44600,8 +45046,14 @@
         <f t="shared" si="1"/>
         <v>0.18010000000000012</v>
       </c>
-    </row>
-    <row r="74" spans="9:11">
+      <c r="L73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="8:12">
+      <c r="H74" t="s">
+        <v>456</v>
+      </c>
       <c r="I74">
         <v>0</v>
       </c>
@@ -44612,8 +45064,14 @@
         <f t="shared" si="1"/>
         <v>0.18260000000000012</v>
       </c>
-    </row>
-    <row r="75" spans="9:11">
+      <c r="L74" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12">
+      <c r="H75" t="s">
+        <v>456</v>
+      </c>
       <c r="I75">
         <v>0</v>
       </c>
@@ -44624,8 +45082,14 @@
         <f t="shared" si="1"/>
         <v>0.18510000000000013</v>
       </c>
-    </row>
-    <row r="76" spans="9:11">
+      <c r="L75" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="8:12">
+      <c r="H76" t="s">
+        <v>456</v>
+      </c>
       <c r="I76">
         <v>0</v>
       </c>
@@ -44636,8 +45100,14 @@
         <f t="shared" si="1"/>
         <v>0.18760000000000013</v>
       </c>
-    </row>
-    <row r="77" spans="9:11">
+      <c r="L76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="8:12">
+      <c r="H77" t="s">
+        <v>456</v>
+      </c>
       <c r="I77">
         <v>0</v>
       </c>
@@ -44648,8 +45118,14 @@
         <f t="shared" si="1"/>
         <v>0.19010000000000013</v>
       </c>
-    </row>
-    <row r="78" spans="9:11">
+      <c r="L77" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12">
+      <c r="H78" t="s">
+        <v>456</v>
+      </c>
       <c r="I78">
         <v>0</v>
       </c>
@@ -44660,8 +45136,14 @@
         <f t="shared" si="1"/>
         <v>0.19260000000000013</v>
       </c>
-    </row>
-    <row r="79" spans="9:11">
+      <c r="L78" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12">
+      <c r="H79" t="s">
+        <v>456</v>
+      </c>
       <c r="I79">
         <v>0</v>
       </c>
@@ -44672,8 +45154,14 @@
         <f t="shared" si="1"/>
         <v>0.19510000000000013</v>
       </c>
-    </row>
-    <row r="80" spans="9:11">
+      <c r="L79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="80" spans="8:12">
+      <c r="H80" t="s">
+        <v>456</v>
+      </c>
       <c r="I80">
         <v>0</v>
       </c>
@@ -44684,8 +45172,14 @@
         <f t="shared" si="1"/>
         <v>0.19760000000000014</v>
       </c>
-    </row>
-    <row r="81" spans="9:11">
+      <c r="L80" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="81" spans="8:12">
+      <c r="H81" t="s">
+        <v>456</v>
+      </c>
       <c r="I81">
         <v>0</v>
       </c>
@@ -44696,8 +45190,14 @@
         <f t="shared" si="1"/>
         <v>0.20010000000000014</v>
       </c>
-    </row>
-    <row r="82" spans="9:11">
+      <c r="L81" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="82" spans="8:12">
+      <c r="H82" t="s">
+        <v>456</v>
+      </c>
       <c r="I82">
         <v>0</v>
       </c>
@@ -44708,8 +45208,14 @@
         <f t="shared" si="1"/>
         <v>0.20260000000000014</v>
       </c>
-    </row>
-    <row r="83" spans="9:11">
+      <c r="L82" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="83" spans="8:12">
+      <c r="H83" t="s">
+        <v>456</v>
+      </c>
       <c r="I83">
         <v>0</v>
       </c>
@@ -44720,8 +45226,14 @@
         <f t="shared" si="1"/>
         <v>0.20510000000000014</v>
       </c>
-    </row>
-    <row r="84" spans="9:11">
+      <c r="L83" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="84" spans="8:12">
+      <c r="H84" t="s">
+        <v>456</v>
+      </c>
       <c r="I84">
         <v>0</v>
       </c>
@@ -44732,8 +45244,14 @@
         <f t="shared" si="1"/>
         <v>0.20760000000000015</v>
       </c>
-    </row>
-    <row r="85" spans="9:11">
+      <c r="L84" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="8:12">
+      <c r="H85" t="s">
+        <v>456</v>
+      </c>
       <c r="I85">
         <v>0</v>
       </c>
@@ -44744,8 +45262,14 @@
         <f t="shared" si="1"/>
         <v>0.21010000000000015</v>
       </c>
-    </row>
-    <row r="86" spans="9:11">
+      <c r="L85" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="86" spans="8:12">
+      <c r="H86" t="s">
+        <v>456</v>
+      </c>
       <c r="I86">
         <v>0</v>
       </c>
@@ -44756,8 +45280,14 @@
         <f t="shared" si="1"/>
         <v>0.21260000000000015</v>
       </c>
-    </row>
-    <row r="87" spans="9:11">
+      <c r="L86" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="87" spans="8:12">
+      <c r="H87" t="s">
+        <v>456</v>
+      </c>
       <c r="I87">
         <v>0</v>
       </c>
@@ -44768,8 +45298,14 @@
         <f t="shared" si="1"/>
         <v>0.21510000000000015</v>
       </c>
-    </row>
-    <row r="88" spans="9:11">
+      <c r="L87" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="88" spans="8:12">
+      <c r="H88" t="s">
+        <v>456</v>
+      </c>
       <c r="I88">
         <v>0</v>
       </c>
@@ -44780,8 +45316,14 @@
         <f t="shared" si="1"/>
         <v>0.21760000000000015</v>
       </c>
-    </row>
-    <row r="89" spans="9:11">
+      <c r="L88" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="89" spans="8:12">
+      <c r="H89" t="s">
+        <v>456</v>
+      </c>
       <c r="I89">
         <v>0</v>
       </c>
@@ -44792,8 +45334,14 @@
         <f t="shared" si="1"/>
         <v>0.22010000000000016</v>
       </c>
-    </row>
-    <row r="90" spans="9:11">
+      <c r="L89" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="90" spans="8:12">
+      <c r="H90" t="s">
+        <v>456</v>
+      </c>
       <c r="I90">
         <v>0</v>
       </c>
@@ -44804,8 +45352,14 @@
         <f t="shared" si="1"/>
         <v>0.22260000000000016</v>
       </c>
-    </row>
-    <row r="91" spans="9:11">
+      <c r="L90" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="91" spans="8:12">
+      <c r="H91" t="s">
+        <v>456</v>
+      </c>
       <c r="I91">
         <v>0</v>
       </c>
@@ -44816,8 +45370,14 @@
         <f t="shared" si="1"/>
         <v>0.22510000000000016</v>
       </c>
-    </row>
-    <row r="92" spans="9:11">
+      <c r="L91" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="8:12">
+      <c r="H92" t="s">
+        <v>456</v>
+      </c>
       <c r="I92">
         <v>0</v>
       </c>
@@ -44828,8 +45388,14 @@
         <f t="shared" si="1"/>
         <v>0.22760000000000016</v>
       </c>
-    </row>
-    <row r="93" spans="9:11">
+      <c r="L92" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="93" spans="8:12">
+      <c r="H93" t="s">
+        <v>456</v>
+      </c>
       <c r="I93">
         <v>0</v>
       </c>
@@ -44840,8 +45406,14 @@
         <f t="shared" si="1"/>
         <v>0.23010000000000017</v>
       </c>
-    </row>
-    <row r="94" spans="9:11">
+      <c r="L93" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="94" spans="8:12">
+      <c r="H94" t="s">
+        <v>456</v>
+      </c>
       <c r="I94">
         <v>0</v>
       </c>
@@ -44852,8 +45424,14 @@
         <f t="shared" si="1"/>
         <v>0.23260000000000017</v>
       </c>
-    </row>
-    <row r="95" spans="9:11">
+      <c r="L94" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="95" spans="8:12">
+      <c r="H95" t="s">
+        <v>456</v>
+      </c>
       <c r="I95">
         <v>0</v>
       </c>
@@ -44864,8 +45442,14 @@
         <f t="shared" si="1"/>
         <v>0.23510000000000017</v>
       </c>
-    </row>
-    <row r="96" spans="9:11">
+      <c r="L95" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="8:12">
+      <c r="H96" t="s">
+        <v>456</v>
+      </c>
       <c r="I96">
         <v>0</v>
       </c>
@@ -44876,8 +45460,14 @@
         <f t="shared" si="1"/>
         <v>0.23760000000000017</v>
       </c>
-    </row>
-    <row r="97" spans="9:11">
+      <c r="L96" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="97" spans="8:12">
+      <c r="H97" t="s">
+        <v>456</v>
+      </c>
       <c r="I97">
         <v>0</v>
       </c>
@@ -44888,8 +45478,14 @@
         <f t="shared" si="1"/>
         <v>0.24010000000000017</v>
       </c>
-    </row>
-    <row r="98" spans="9:11">
+      <c r="L97" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="98" spans="8:12">
+      <c r="H98" t="s">
+        <v>456</v>
+      </c>
       <c r="I98">
         <v>0</v>
       </c>
@@ -44900,8 +45496,14 @@
         <f t="shared" si="1"/>
         <v>0.24260000000000018</v>
       </c>
-    </row>
-    <row r="99" spans="9:11">
+      <c r="L98" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="99" spans="8:12">
+      <c r="H99" t="s">
+        <v>456</v>
+      </c>
       <c r="I99">
         <v>0</v>
       </c>
@@ -44912,8 +45514,14 @@
         <f t="shared" si="1"/>
         <v>0.24510000000000018</v>
       </c>
-    </row>
-    <row r="100" spans="9:11">
+      <c r="L99" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="100" spans="8:12">
+      <c r="H100" t="s">
+        <v>456</v>
+      </c>
       <c r="I100">
         <v>0</v>
       </c>
@@ -44924,8 +45532,14 @@
         <f t="shared" si="1"/>
         <v>0.24760000000000018</v>
       </c>
-    </row>
-    <row r="101" spans="9:11">
+      <c r="L100" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="101" spans="8:12">
+      <c r="H101" t="s">
+        <v>456</v>
+      </c>
       <c r="I101">
         <v>0</v>
       </c>
@@ -44936,8 +45550,14 @@
         <f t="shared" si="1"/>
         <v>0.25010000000000016</v>
       </c>
-    </row>
-    <row r="102" spans="9:11">
+      <c r="L101" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="8:12">
+      <c r="H102" t="s">
+        <v>456</v>
+      </c>
       <c r="I102">
         <v>0</v>
       </c>
@@ -44948,8 +45568,14 @@
         <f t="shared" si="1"/>
         <v>0.25260000000000016</v>
       </c>
-    </row>
-    <row r="103" spans="9:11">
+      <c r="L102" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="103" spans="8:12">
+      <c r="H103" t="s">
+        <v>456</v>
+      </c>
       <c r="I103">
         <v>0</v>
       </c>
@@ -44960,8 +45586,14 @@
         <f t="shared" si="1"/>
         <v>0.25510000000000016</v>
       </c>
-    </row>
-    <row r="104" spans="9:11">
+      <c r="L103" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="104" spans="8:12">
+      <c r="H104" t="s">
+        <v>456</v>
+      </c>
       <c r="I104">
         <v>0</v>
       </c>
@@ -44972,8 +45604,14 @@
         <f t="shared" si="1"/>
         <v>0.25760000000000016</v>
       </c>
-    </row>
-    <row r="105" spans="9:11">
+      <c r="L104" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="8:12">
+      <c r="H105" t="s">
+        <v>456</v>
+      </c>
       <c r="I105">
         <v>0</v>
       </c>
@@ -44984,8 +45622,14 @@
         <f t="shared" si="1"/>
         <v>0.26010000000000016</v>
       </c>
-    </row>
-    <row r="106" spans="9:11">
+      <c r="L105" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="8:12">
+      <c r="H106" t="s">
+        <v>456</v>
+      </c>
       <c r="I106">
         <v>0</v>
       </c>
@@ -44996,8 +45640,14 @@
         <f t="shared" si="1"/>
         <v>0.26260000000000017</v>
       </c>
-    </row>
-    <row r="107" spans="9:11">
+      <c r="L106" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="8:12">
+      <c r="H107" t="s">
+        <v>456</v>
+      </c>
       <c r="I107">
         <v>0</v>
       </c>
@@ -45008,8 +45658,14 @@
         <f t="shared" si="1"/>
         <v>0.26510000000000017</v>
       </c>
-    </row>
-    <row r="108" spans="9:11">
+      <c r="L107" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="108" spans="8:12">
+      <c r="H108" t="s">
+        <v>456</v>
+      </c>
       <c r="I108">
         <v>0</v>
       </c>
@@ -45020,8 +45676,14 @@
         <f t="shared" si="1"/>
         <v>0.26760000000000017</v>
       </c>
-    </row>
-    <row r="109" spans="9:11">
+      <c r="L108" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="8:12">
+      <c r="H109" t="s">
+        <v>456</v>
+      </c>
       <c r="I109">
         <v>0</v>
       </c>
@@ -45032,8 +45694,14 @@
         <f t="shared" si="1"/>
         <v>0.27010000000000017</v>
       </c>
-    </row>
-    <row r="110" spans="9:11">
+      <c r="L109" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="110" spans="8:12">
+      <c r="H110" t="s">
+        <v>456</v>
+      </c>
       <c r="I110">
         <v>0</v>
       </c>
@@ -45044,8 +45712,14 @@
         <f t="shared" si="1"/>
         <v>0.27260000000000018</v>
       </c>
-    </row>
-    <row r="111" spans="9:11">
+      <c r="L110" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="111" spans="8:12">
+      <c r="H111" t="s">
+        <v>456</v>
+      </c>
       <c r="I111">
         <v>0</v>
       </c>
@@ -45056,8 +45730,14 @@
         <f t="shared" si="1"/>
         <v>0.27510000000000018</v>
       </c>
-    </row>
-    <row r="112" spans="9:11">
+      <c r="L111" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="112" spans="8:12">
+      <c r="H112" t="s">
+        <v>456</v>
+      </c>
       <c r="I112">
         <v>0</v>
       </c>
@@ -45068,8 +45748,14 @@
         <f t="shared" si="1"/>
         <v>0.27760000000000018</v>
       </c>
-    </row>
-    <row r="113" spans="9:11">
+      <c r="L112" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="8:12">
+      <c r="H113" t="s">
+        <v>456</v>
+      </c>
       <c r="I113">
         <v>0</v>
       </c>
@@ -45080,8 +45766,14 @@
         <f t="shared" si="1"/>
         <v>0.28010000000000018</v>
       </c>
-    </row>
-    <row r="114" spans="9:11">
+      <c r="L113" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="114" spans="8:12">
+      <c r="H114" t="s">
+        <v>456</v>
+      </c>
       <c r="I114">
         <v>0</v>
       </c>
@@ -45092,8 +45784,14 @@
         <f t="shared" si="1"/>
         <v>0.28260000000000018</v>
       </c>
-    </row>
-    <row r="115" spans="9:11">
+      <c r="L114" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="115" spans="8:12">
+      <c r="H115" t="s">
+        <v>456</v>
+      </c>
       <c r="I115">
         <v>0</v>
       </c>
@@ -45104,8 +45802,14 @@
         <f t="shared" si="1"/>
         <v>0.28510000000000019</v>
       </c>
-    </row>
-    <row r="116" spans="9:11">
+      <c r="L115" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="8:12">
+      <c r="H116" t="s">
+        <v>456</v>
+      </c>
       <c r="I116">
         <v>0</v>
       </c>
@@ -45116,8 +45820,14 @@
         <f t="shared" si="1"/>
         <v>0.28760000000000019</v>
       </c>
-    </row>
-    <row r="117" spans="9:11">
+      <c r="L116" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="117" spans="8:12">
+      <c r="H117" t="s">
+        <v>456</v>
+      </c>
       <c r="I117">
         <v>0</v>
       </c>
@@ -45128,8 +45838,14 @@
         <f t="shared" si="1"/>
         <v>0.29010000000000019</v>
       </c>
-    </row>
-    <row r="118" spans="9:11">
+      <c r="L117" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="118" spans="8:12">
+      <c r="H118" t="s">
+        <v>456</v>
+      </c>
       <c r="I118">
         <v>0</v>
       </c>
@@ -45140,8 +45856,14 @@
         <f t="shared" si="1"/>
         <v>0.29260000000000019</v>
       </c>
-    </row>
-    <row r="119" spans="9:11">
+      <c r="L118" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="119" spans="8:12">
+      <c r="H119" t="s">
+        <v>456</v>
+      </c>
       <c r="I119">
         <v>0</v>
       </c>
@@ -45152,8 +45874,14 @@
         <f t="shared" si="1"/>
         <v>0.2951000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="9:11">
+      <c r="L119" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="8:12">
+      <c r="H120" t="s">
+        <v>456</v>
+      </c>
       <c r="I120">
         <v>0</v>
       </c>
@@ -45164,8 +45892,14 @@
         <f t="shared" si="1"/>
         <v>0.2976000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="9:11">
+      <c r="L120" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="121" spans="8:12">
+      <c r="H121" t="s">
+        <v>456</v>
+      </c>
       <c r="I121">
         <v>0</v>
       </c>
@@ -45176,8 +45910,14 @@
         <f t="shared" si="1"/>
         <v>0.3001000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="9:11">
+      <c r="L121" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="122" spans="8:12">
+      <c r="H122" t="s">
+        <v>456</v>
+      </c>
       <c r="I122">
         <v>0</v>
       </c>
@@ -45188,8 +45928,14 @@
         <f t="shared" si="1"/>
         <v>0.3026000000000002</v>
       </c>
-    </row>
-    <row r="123" spans="9:11">
+      <c r="L122" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" spans="8:12">
+      <c r="H123" t="s">
+        <v>456</v>
+      </c>
       <c r="I123">
         <v>0</v>
       </c>
@@ -45200,8 +45946,14 @@
         <f t="shared" si="1"/>
         <v>0.3051000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="9:11">
+      <c r="L123" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="8:12">
+      <c r="H124" t="s">
+        <v>456</v>
+      </c>
       <c r="I124">
         <v>0</v>
       </c>
@@ -45212,8 +45964,14 @@
         <f t="shared" si="1"/>
         <v>0.30760000000000021</v>
       </c>
-    </row>
-    <row r="125" spans="9:11">
+      <c r="L124" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125" spans="8:12">
+      <c r="H125" t="s">
+        <v>456</v>
+      </c>
       <c r="I125">
         <v>0</v>
       </c>
@@ -45224,8 +45982,14 @@
         <f t="shared" si="1"/>
         <v>0.31010000000000021</v>
       </c>
-    </row>
-    <row r="126" spans="9:11">
+      <c r="L125" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="126" spans="8:12">
+      <c r="H126" t="s">
+        <v>456</v>
+      </c>
       <c r="I126">
         <v>0</v>
       </c>
@@ -45236,8 +46000,14 @@
         <f t="shared" si="1"/>
         <v>0.31260000000000021</v>
       </c>
-    </row>
-    <row r="127" spans="9:11">
+      <c r="L126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="127" spans="8:12">
+      <c r="H127" t="s">
+        <v>456</v>
+      </c>
       <c r="I127">
         <v>0</v>
       </c>
@@ -45248,8 +46018,14 @@
         <f t="shared" si="1"/>
         <v>0.31510000000000021</v>
       </c>
-    </row>
-    <row r="128" spans="9:11">
+      <c r="L127" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="8:12">
+      <c r="H128" t="s">
+        <v>456</v>
+      </c>
       <c r="I128">
         <v>0</v>
       </c>
@@ -45260,8 +46036,14 @@
         <f t="shared" si="1"/>
         <v>0.31760000000000022</v>
       </c>
-    </row>
-    <row r="129" spans="9:11">
+      <c r="L128" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="129" spans="8:12">
+      <c r="H129" t="s">
+        <v>456</v>
+      </c>
       <c r="I129">
         <v>0</v>
       </c>
@@ -45272,8 +46054,14 @@
         <f t="shared" si="1"/>
         <v>0.32010000000000022</v>
       </c>
-    </row>
-    <row r="130" spans="9:11">
+      <c r="L129" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="130" spans="8:12">
+      <c r="H130" t="s">
+        <v>456</v>
+      </c>
       <c r="I130">
         <v>0</v>
       </c>
@@ -45284,8 +46072,14 @@
         <f t="shared" si="1"/>
         <v>0.32260000000000022</v>
       </c>
-    </row>
-    <row r="131" spans="9:11">
+      <c r="L130" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="131" spans="8:12">
+      <c r="H131" t="s">
+        <v>456</v>
+      </c>
       <c r="I131">
         <v>0</v>
       </c>
@@ -45296,8 +46090,14 @@
         <f t="shared" ref="K131:K194" si="2">K130+0.0025</f>
         <v>0.32510000000000022</v>
       </c>
-    </row>
-    <row r="132" spans="9:11">
+      <c r="L131" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="132" spans="8:12">
+      <c r="H132" t="s">
+        <v>456</v>
+      </c>
       <c r="I132">
         <v>0</v>
       </c>
@@ -45308,8 +46108,14 @@
         <f t="shared" si="2"/>
         <v>0.32760000000000022</v>
       </c>
-    </row>
-    <row r="133" spans="9:11">
+      <c r="L132" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="133" spans="8:12">
+      <c r="H133" t="s">
+        <v>456</v>
+      </c>
       <c r="I133">
         <v>0</v>
       </c>
@@ -45320,8 +46126,14 @@
         <f t="shared" si="2"/>
         <v>0.33010000000000023</v>
       </c>
-    </row>
-    <row r="134" spans="9:11">
+      <c r="L133" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="134" spans="8:12">
+      <c r="H134" t="s">
+        <v>456</v>
+      </c>
       <c r="I134">
         <v>0</v>
       </c>
@@ -45332,8 +46144,14 @@
         <f t="shared" si="2"/>
         <v>0.33260000000000023</v>
       </c>
-    </row>
-    <row r="135" spans="9:11">
+      <c r="L134" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="135" spans="8:12">
+      <c r="H135" t="s">
+        <v>456</v>
+      </c>
       <c r="I135">
         <v>0</v>
       </c>
@@ -45344,8 +46162,14 @@
         <f t="shared" si="2"/>
         <v>0.33510000000000023</v>
       </c>
-    </row>
-    <row r="136" spans="9:11">
+      <c r="L135" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="136" spans="8:12">
+      <c r="H136" t="s">
+        <v>456</v>
+      </c>
       <c r="I136">
         <v>0</v>
       </c>
@@ -45356,8 +46180,14 @@
         <f t="shared" si="2"/>
         <v>0.33760000000000023</v>
       </c>
-    </row>
-    <row r="137" spans="9:11">
+      <c r="L136" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="137" spans="8:12">
+      <c r="H137" t="s">
+        <v>456</v>
+      </c>
       <c r="I137">
         <v>0</v>
       </c>
@@ -45368,8 +46198,14 @@
         <f t="shared" si="2"/>
         <v>0.34010000000000024</v>
       </c>
-    </row>
-    <row r="138" spans="9:11">
+      <c r="L137" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="138" spans="8:12">
+      <c r="H138" t="s">
+        <v>456</v>
+      </c>
       <c r="I138">
         <v>0</v>
       </c>
@@ -45380,8 +46216,14 @@
         <f t="shared" si="2"/>
         <v>0.34260000000000024</v>
       </c>
-    </row>
-    <row r="139" spans="9:11">
+      <c r="L138" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="139" spans="8:12">
+      <c r="H139" t="s">
+        <v>456</v>
+      </c>
       <c r="I139">
         <v>0</v>
       </c>
@@ -45392,8 +46234,14 @@
         <f t="shared" si="2"/>
         <v>0.34510000000000024</v>
       </c>
-    </row>
-    <row r="140" spans="9:11">
+      <c r="L139" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="140" spans="8:12">
+      <c r="H140" t="s">
+        <v>456</v>
+      </c>
       <c r="I140">
         <v>0</v>
       </c>
@@ -45404,8 +46252,14 @@
         <f t="shared" si="2"/>
         <v>0.34760000000000024</v>
       </c>
-    </row>
-    <row r="141" spans="9:11">
+      <c r="L140" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="141" spans="8:12">
+      <c r="H141" t="s">
+        <v>456</v>
+      </c>
       <c r="I141">
         <v>0</v>
       </c>
@@ -45416,8 +46270,14 @@
         <f t="shared" si="2"/>
         <v>0.35010000000000024</v>
       </c>
-    </row>
-    <row r="142" spans="9:11">
+      <c r="L141" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="142" spans="8:12">
+      <c r="H142" t="s">
+        <v>456</v>
+      </c>
       <c r="I142">
         <v>0</v>
       </c>
@@ -45428,8 +46288,14 @@
         <f t="shared" si="2"/>
         <v>0.35260000000000025</v>
       </c>
-    </row>
-    <row r="143" spans="9:11">
+      <c r="L142" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="143" spans="8:12">
+      <c r="H143" t="s">
+        <v>456</v>
+      </c>
       <c r="I143">
         <v>0</v>
       </c>
@@ -45440,8 +46306,14 @@
         <f t="shared" si="2"/>
         <v>0.35510000000000025</v>
       </c>
-    </row>
-    <row r="144" spans="9:11">
+      <c r="L143" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="144" spans="8:12">
+      <c r="H144" t="s">
+        <v>456</v>
+      </c>
       <c r="I144">
         <v>0</v>
       </c>
@@ -45452,8 +46324,14 @@
         <f t="shared" si="2"/>
         <v>0.35760000000000025</v>
       </c>
-    </row>
-    <row r="145" spans="9:11">
+      <c r="L144" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="145" spans="8:12">
+      <c r="H145" t="s">
+        <v>456</v>
+      </c>
       <c r="I145">
         <v>0</v>
       </c>
@@ -45464,8 +46342,14 @@
         <f t="shared" si="2"/>
         <v>0.36010000000000025</v>
       </c>
-    </row>
-    <row r="146" spans="9:11">
+      <c r="L145" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="146" spans="8:12">
+      <c r="H146" t="s">
+        <v>456</v>
+      </c>
       <c r="I146">
         <v>0</v>
       </c>
@@ -45476,8 +46360,14 @@
         <f t="shared" si="2"/>
         <v>0.36260000000000026</v>
       </c>
-    </row>
-    <row r="147" spans="9:11">
+      <c r="L146" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="147" spans="8:12">
+      <c r="H147" t="s">
+        <v>456</v>
+      </c>
       <c r="I147">
         <v>0</v>
       </c>
@@ -45488,8 +46378,14 @@
         <f t="shared" si="2"/>
         <v>0.36510000000000026</v>
       </c>
-    </row>
-    <row r="148" spans="9:11">
+      <c r="L147" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="148" spans="8:12">
+      <c r="H148" t="s">
+        <v>456</v>
+      </c>
       <c r="I148">
         <v>0</v>
       </c>
@@ -45500,8 +46396,14 @@
         <f t="shared" si="2"/>
         <v>0.36760000000000026</v>
       </c>
-    </row>
-    <row r="149" spans="9:11">
+      <c r="L148" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="149" spans="8:12">
+      <c r="H149" t="s">
+        <v>456</v>
+      </c>
       <c r="I149">
         <v>0</v>
       </c>
@@ -45512,8 +46414,14 @@
         <f t="shared" si="2"/>
         <v>0.37010000000000026</v>
       </c>
-    </row>
-    <row r="150" spans="9:11">
+      <c r="L149" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="150" spans="8:12">
+      <c r="H150" t="s">
+        <v>456</v>
+      </c>
       <c r="I150">
         <v>0</v>
       </c>
@@ -45524,8 +46432,14 @@
         <f t="shared" si="2"/>
         <v>0.37260000000000026</v>
       </c>
-    </row>
-    <row r="151" spans="9:11">
+      <c r="L150" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="151" spans="8:12">
+      <c r="H151" t="s">
+        <v>456</v>
+      </c>
       <c r="I151">
         <v>0</v>
       </c>
@@ -45536,8 +46450,14 @@
         <f t="shared" si="2"/>
         <v>0.37510000000000027</v>
       </c>
-    </row>
-    <row r="152" spans="9:11">
+      <c r="L151" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="152" spans="8:12">
+      <c r="H152" t="s">
+        <v>456</v>
+      </c>
       <c r="I152">
         <v>0</v>
       </c>
@@ -45548,8 +46468,14 @@
         <f t="shared" si="2"/>
         <v>0.37760000000000027</v>
       </c>
-    </row>
-    <row r="153" spans="9:11">
+      <c r="L152" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="153" spans="8:12">
+      <c r="H153" t="s">
+        <v>456</v>
+      </c>
       <c r="I153">
         <v>0</v>
       </c>
@@ -45560,8 +46486,14 @@
         <f t="shared" si="2"/>
         <v>0.38010000000000027</v>
       </c>
-    </row>
-    <row r="154" spans="9:11">
+      <c r="L153" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="154" spans="8:12">
+      <c r="H154" t="s">
+        <v>456</v>
+      </c>
       <c r="I154">
         <v>0</v>
       </c>
@@ -45572,8 +46504,14 @@
         <f t="shared" si="2"/>
         <v>0.38260000000000027</v>
       </c>
-    </row>
-    <row r="155" spans="9:11">
+      <c r="L154" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="8:12">
+      <c r="H155" t="s">
+        <v>456</v>
+      </c>
       <c r="I155">
         <v>0</v>
       </c>
@@ -45584,8 +46522,14 @@
         <f t="shared" si="2"/>
         <v>0.38510000000000028</v>
       </c>
-    </row>
-    <row r="156" spans="9:11">
+      <c r="L155" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="156" spans="8:12">
+      <c r="H156" t="s">
+        <v>456</v>
+      </c>
       <c r="I156">
         <v>0</v>
       </c>
@@ -45596,8 +46540,14 @@
         <f t="shared" si="2"/>
         <v>0.38760000000000028</v>
       </c>
-    </row>
-    <row r="157" spans="9:11">
+      <c r="L156" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="157" spans="8:12">
+      <c r="H157" t="s">
+        <v>456</v>
+      </c>
       <c r="I157">
         <v>0</v>
       </c>
@@ -45608,8 +46558,14 @@
         <f t="shared" si="2"/>
         <v>0.39010000000000028</v>
       </c>
-    </row>
-    <row r="158" spans="9:11">
+      <c r="L157" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="158" spans="8:12">
+      <c r="H158" t="s">
+        <v>456</v>
+      </c>
       <c r="I158">
         <v>0</v>
       </c>
@@ -45620,8 +46576,14 @@
         <f t="shared" si="2"/>
         <v>0.39260000000000028</v>
       </c>
-    </row>
-    <row r="159" spans="9:11">
+      <c r="L158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="159" spans="8:12">
+      <c r="H159" t="s">
+        <v>456</v>
+      </c>
       <c r="I159">
         <v>0</v>
       </c>
@@ -45632,8 +46594,14 @@
         <f t="shared" si="2"/>
         <v>0.39510000000000028</v>
       </c>
-    </row>
-    <row r="160" spans="9:11">
+      <c r="L159" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="160" spans="8:12">
+      <c r="H160" t="s">
+        <v>456</v>
+      </c>
       <c r="I160">
         <v>0</v>
       </c>
@@ -45644,8 +46612,14 @@
         <f t="shared" si="2"/>
         <v>0.39760000000000029</v>
       </c>
-    </row>
-    <row r="161" spans="9:11">
+      <c r="L160" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="8:12">
+      <c r="H161" t="s">
+        <v>456</v>
+      </c>
       <c r="I161">
         <v>0</v>
       </c>
@@ -45656,8 +46630,14 @@
         <f t="shared" si="2"/>
         <v>0.40010000000000029</v>
       </c>
-    </row>
-    <row r="162" spans="9:11">
+      <c r="L161" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="162" spans="8:12">
+      <c r="H162" t="s">
+        <v>456</v>
+      </c>
       <c r="I162">
         <v>0</v>
       </c>
@@ -45668,8 +46648,14 @@
         <f t="shared" si="2"/>
         <v>0.40260000000000029</v>
       </c>
-    </row>
-    <row r="163" spans="9:11">
+      <c r="L162" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="163" spans="8:12">
+      <c r="H163" t="s">
+        <v>456</v>
+      </c>
       <c r="I163">
         <v>0</v>
       </c>
@@ -45680,8 +46666,14 @@
         <f t="shared" si="2"/>
         <v>0.40510000000000029</v>
       </c>
-    </row>
-    <row r="164" spans="9:11">
+      <c r="L163" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="164" spans="8:12">
+      <c r="H164" t="s">
+        <v>456</v>
+      </c>
       <c r="I164">
         <v>0</v>
       </c>
@@ -45692,8 +46684,14 @@
         <f t="shared" si="2"/>
         <v>0.4076000000000003</v>
       </c>
-    </row>
-    <row r="165" spans="9:11">
+      <c r="L164" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="165" spans="8:12">
+      <c r="H165" t="s">
+        <v>456</v>
+      </c>
       <c r="I165">
         <v>0</v>
       </c>
@@ -45704,8 +46702,14 @@
         <f t="shared" si="2"/>
         <v>0.4101000000000003</v>
       </c>
-    </row>
-    <row r="166" spans="9:11">
+      <c r="L165" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="166" spans="8:12">
+      <c r="H166" t="s">
+        <v>456</v>
+      </c>
       <c r="I166">
         <v>0</v>
       </c>
@@ -45716,8 +46720,14 @@
         <f t="shared" si="2"/>
         <v>0.4126000000000003</v>
       </c>
-    </row>
-    <row r="167" spans="9:11">
+      <c r="L166" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="167" spans="8:12">
+      <c r="H167" t="s">
+        <v>456</v>
+      </c>
       <c r="I167">
         <v>0</v>
       </c>
@@ -45728,8 +46738,14 @@
         <f t="shared" si="2"/>
         <v>0.4151000000000003</v>
       </c>
-    </row>
-    <row r="168" spans="9:11">
+      <c r="L167" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="168" spans="8:12">
+      <c r="H168" t="s">
+        <v>456</v>
+      </c>
       <c r="I168">
         <v>0</v>
       </c>
@@ -45740,8 +46756,14 @@
         <f t="shared" si="2"/>
         <v>0.4176000000000003</v>
       </c>
-    </row>
-    <row r="169" spans="9:11">
+      <c r="L168" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="169" spans="8:12">
+      <c r="H169" t="s">
+        <v>456</v>
+      </c>
       <c r="I169">
         <v>0</v>
       </c>
@@ -45752,8 +46774,14 @@
         <f t="shared" si="2"/>
         <v>0.42010000000000031</v>
       </c>
-    </row>
-    <row r="170" spans="9:11">
+      <c r="L169" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="170" spans="8:12">
+      <c r="H170" t="s">
+        <v>456</v>
+      </c>
       <c r="I170">
         <v>0</v>
       </c>
@@ -45764,8 +46792,14 @@
         <f t="shared" si="2"/>
         <v>0.42260000000000031</v>
       </c>
-    </row>
-    <row r="171" spans="9:11">
+      <c r="L170" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="171" spans="8:12">
+      <c r="H171" t="s">
+        <v>456</v>
+      </c>
       <c r="I171">
         <v>0</v>
       </c>
@@ -45776,8 +46810,14 @@
         <f t="shared" si="2"/>
         <v>0.42510000000000031</v>
       </c>
-    </row>
-    <row r="172" spans="9:11">
+      <c r="L171" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="8:12">
+      <c r="H172" t="s">
+        <v>456</v>
+      </c>
       <c r="I172">
         <v>0</v>
       </c>
@@ -45788,8 +46828,14 @@
         <f t="shared" si="2"/>
         <v>0.42760000000000031</v>
       </c>
-    </row>
-    <row r="173" spans="9:11">
+      <c r="L172" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="173" spans="8:12">
+      <c r="H173" t="s">
+        <v>456</v>
+      </c>
       <c r="I173">
         <v>0</v>
       </c>
@@ -45800,8 +46846,14 @@
         <f t="shared" si="2"/>
         <v>0.43010000000000032</v>
       </c>
-    </row>
-    <row r="174" spans="9:11">
+      <c r="L173" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="174" spans="8:12">
+      <c r="H174" t="s">
+        <v>456</v>
+      </c>
       <c r="I174">
         <v>0</v>
       </c>
@@ -45812,8 +46864,14 @@
         <f t="shared" si="2"/>
         <v>0.43260000000000032</v>
       </c>
-    </row>
-    <row r="175" spans="9:11">
+      <c r="L174" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="175" spans="8:12">
+      <c r="H175" t="s">
+        <v>456</v>
+      </c>
       <c r="I175">
         <v>0</v>
       </c>
@@ -45824,8 +46882,14 @@
         <f t="shared" si="2"/>
         <v>0.43510000000000032</v>
       </c>
-    </row>
-    <row r="176" spans="9:11">
+      <c r="L175" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="176" spans="8:12">
+      <c r="H176" t="s">
+        <v>456</v>
+      </c>
       <c r="I176">
         <v>0</v>
       </c>
@@ -45836,8 +46900,14 @@
         <f t="shared" si="2"/>
         <v>0.43760000000000032</v>
       </c>
-    </row>
-    <row r="177" spans="9:11">
+      <c r="L176" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" spans="8:12">
+      <c r="H177" t="s">
+        <v>456</v>
+      </c>
       <c r="I177">
         <v>0</v>
       </c>
@@ -45847,6 +46917,9 @@
       <c r="K177">
         <f t="shared" si="2"/>
         <v>0.44010000000000032</v>
+      </c>
+      <c r="L177" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE63594-7588-4651-91DF-96D360CAA15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FFD2F7-C1A7-4C47-B753-39FBB308908C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Umf+Ut~NETL" sheetId="1" r:id="rId1"/>
@@ -2128,6 +2128,7 @@
     <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2140,7 +2141,6 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7739,8 +7739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -8037,11 +8037,11 @@
       </c>
       <c r="C22" s="8">
         <f>1.75/H12^3/C23</f>
-        <v>37.666446664064274</v>
+        <v>32.288431409369174</v>
       </c>
       <c r="D22" s="8">
         <f>150*(1-H12)/H12^3/C23^2</f>
-        <v>2340.9849702042602</v>
+        <v>1720.2169222977857</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="H22" s="11">
         <f>D12/H6/D10*(-D22+SQRT(D22*D22+4*C22*H10))/2/C22</f>
-        <v>14.317661400697565</v>
+        <v>18.77671522924539</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>36</v>
@@ -8066,7 +8066,7 @@
         <v>102</v>
       </c>
       <c r="C23" s="6">
-        <v>0.85721999999999998</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
@@ -9326,30 +9326,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
       <c r="H1" s="55"/>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
       <c r="U1" s="55"/>
     </row>
     <row r="2" spans="1:21">
@@ -9531,16 +9531,16 @@
       <c r="U5" s="55"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="55"/>
       <c r="J6" s="55">
         <v>0</v>
@@ -9760,12 +9760,12 @@
       <c r="U10" s="55"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
@@ -9973,12 +9973,12 @@
       <c r="U15" s="55"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
@@ -10186,14 +10186,14 @@
       <c r="U20" s="55"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
@@ -43606,7 +43606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209E1E1-E7F4-4767-A171-44374C246217}">
   <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -43620,15 +43620,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="70">
+      <c r="B1" s="66">
         <f>4*3.14/3*B5^3*B6/((1-B4)*3.14*B8^2)</f>
         <v>1.5243136796711201E-2</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66">
         <f>B1-B5</f>
         <v>1.4743136796711201E-2</v>
       </c>
@@ -43655,10 +43655,10 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="H2" t="s">
         <v>456</v>
       </c>
@@ -43677,10 +43677,10 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="H3" t="s">
         <v>456</v>
       </c>
@@ -43699,14 +43699,14 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="B4" s="70">
+      <c r="B4" s="66">
         <v>0.43</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="H4" t="s">
         <v>456</v>
       </c>
@@ -43725,14 +43725,14 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="66" t="s">
         <v>452</v>
       </c>
-      <c r="B5" s="70">
+      <c r="B5" s="66">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="H5" t="s">
         <v>456</v>
       </c>
@@ -43751,14 +43751,14 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="66">
         <v>10000</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="H6" t="s">
         <v>456</v>
       </c>
@@ -43777,10 +43777,10 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
       <c r="H7" t="s">
         <v>456</v>
       </c>
@@ -43799,14 +43799,14 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="66" t="s">
         <v>453</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="66">
         <v>1.3849999999999999E-2</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
       <c r="H8" t="s">
         <v>456</v>
       </c>
@@ -43825,10 +43825,10 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
       <c r="H9" t="s">
         <v>456</v>
       </c>
@@ -43847,10 +43847,10 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
       <c r="H10" t="s">
         <v>456</v>
       </c>
@@ -43869,10 +43869,10 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
       <c r="H11" t="s">
         <v>456</v>
       </c>
@@ -46087,7 +46087,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <f t="shared" ref="K131:K194" si="2">K130+0.0025</f>
+        <f t="shared" ref="K131:K177" si="2">K130+0.0025</f>
         <v>0.32510000000000022</v>
       </c>
       <c r="L131" t="s">
@@ -47932,8 +47932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03506B64-8534-423C-BE78-F03DA3AD3605}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -47997,38 +47997,38 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
     </row>
     <row r="23" spans="1:5" ht="13.2">
       <c r="A23" s="17" t="s">
@@ -48137,7 +48137,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="21">
-        <v>0.85719999999999996</v>
+        <v>1</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>70</v>
@@ -48173,7 +48173,7 @@
   <dimension ref="A2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -48313,7 +48313,7 @@
         <v>55</v>
       </c>
       <c r="B25" s="21">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>70</v>
@@ -48398,7 +48398,7 @@
       </c>
       <c r="C3" s="30">
         <f>(C19*(C18*C15)^2*(C14-C13)*C16^3)/(150*C17*(1-C16))</f>
-        <v>0.15406911222140843</v>
+        <v>0.20977509972974082</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>50</v>
@@ -48419,7 +48419,7 @@
       <c r="B4" s="32"/>
       <c r="C4" s="33">
         <f>100*C3</f>
-        <v>15.406911222140844</v>
+        <v>20.977509972974083</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>23</v>
@@ -48492,7 +48492,7 @@
       </c>
       <c r="C8" s="23">
         <f>(C13*C15*C3)/C17</f>
-        <v>5.1214711524717638</v>
+        <v>6.9732155023313576</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -48604,7 +48604,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="17">
         <f>((C18*C15)^2)*(C19*(C14-C13))*(C16^3)/(150*C17*(1-C16))</f>
-        <v>0.15406911222140843</v>
+        <v>0.20977509972974084</v>
       </c>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
@@ -48719,7 +48719,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="21">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>70</v>
@@ -48759,24 +48759,24 @@
       <c r="P19" s="65"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
     </row>
     <row r="36" spans="20:20">
       <c r="T36" s="64" t="s">
@@ -48802,7 +48802,7 @@
   <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -48944,7 +48944,7 @@
         <v>55</v>
       </c>
       <c r="B25" s="21">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>70</v>
@@ -48980,7 +48980,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -49013,7 +49013,7 @@
       </c>
       <c r="C2" s="17">
         <f>1.75*(C16*C6*C14)^2/(C19*C17^3*C18^2)</f>
-        <v>852.64284370799862</v>
+        <v>1257.8952734457414</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -49034,7 +49034,7 @@
       </c>
       <c r="C3" s="20">
         <f>150*(1-C17)*C16*C6*C14/(C18*C17^3*C19^2)</f>
-        <v>11142.229122444742</v>
+        <v>10736.976056736947</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17"/>
@@ -49076,7 +49076,7 @@
       </c>
       <c r="C5" s="21">
         <f>C2+C3-C4</f>
-        <v>5.9069228154839948E-4</v>
+        <v>-4.5277771278051659E-5</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17"/>
@@ -49096,7 +49096,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="30">
-        <v>0.14311045492083774</v>
+        <v>0.18776715165095156</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>50</v>
@@ -49117,7 +49117,7 @@
       <c r="B7" s="32"/>
       <c r="C7" s="33">
         <f>100*C6</f>
-        <v>14.311045492083775</v>
+        <v>18.776715165095155</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>23</v>
@@ -49156,7 +49156,7 @@
       </c>
       <c r="C9" s="23">
         <f>(C14*C16*C3)/C18</f>
-        <v>370383.16247857374</v>
+        <v>356911.98804556613</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -49366,7 +49366,7 @@
         <v>55</v>
       </c>
       <c r="C19" s="21">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>77</v>
@@ -49405,33 +49405,33 @@
       <c r="N20" s="17"/>
     </row>
     <row r="24" spans="1:14" ht="11.7" customHeight="1">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -49449,7 +49449,7 @@
   <dimension ref="B3:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -49472,7 +49472,7 @@
       </c>
       <c r="L4">
         <f>(4*C15*(C14-C13)*C19/(3*C13*L6))^(1/2)</f>
-        <v>1.4102519953090793</v>
+        <v>1.524451106058452</v>
       </c>
       <c r="M4" t="s">
         <v>98</v>
@@ -49496,7 +49496,7 @@
       </c>
       <c r="L6">
         <f>24/C8*(1+(8.1716*EXP(-4.0655*C18))*C8^(0.0964+0.5565*C18))+73.69*(EXP(-5.0748*C18))*C8/(C8+5.378*EXP(6.2122*C18))</f>
-        <v>7.2775062091460638</v>
+        <v>6.228006123560931</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="13.2">
@@ -49672,7 +49672,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="21">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>70</v>
@@ -49698,24 +49698,24 @@
       <c r="H19" s="17"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -49733,7 +49733,7 @@
   <dimension ref="B3:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -49780,7 +49780,7 @@
       </c>
       <c r="C5" s="35">
         <f>'Umf~Ergun'!C7</f>
-        <v>14.311045492083775</v>
+        <v>18.776715165095155</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>23</v>
@@ -49802,7 +49802,7 @@
       </c>
       <c r="C6" s="35">
         <f>'Umf+Ut~Kunii'!C4</f>
-        <v>15.406911222140844</v>
+        <v>20.977509972974083</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>97</v>
@@ -49824,7 +49824,7 @@
       <c r="D7" s="35"/>
       <c r="H7">
         <f>'Umf~'!L4</f>
-        <v>1.4102519953090793</v>
+        <v>1.524451106058452</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.6">
@@ -49833,7 +49833,7 @@
       </c>
       <c r="C8" s="39">
         <f>AVERAGE(C4:C6)</f>
-        <v>16.536565414969036</v>
+        <v>19.88198822291724</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>23</v>
@@ -49850,7 +49850,7 @@
       </c>
       <c r="C10" s="41">
         <f>3*$C$8</f>
-        <v>49.609696244907113</v>
+        <v>59.645964668751716</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>23</v>
@@ -49862,7 +49862,7 @@
       </c>
       <c r="C11" s="41">
         <f>4*$C$8</f>
-        <v>66.146261659876146</v>
+        <v>79.52795289166896</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>23</v>
@@ -49874,7 +49874,7 @@
       </c>
       <c r="C12" s="41">
         <f>5*$C$8</f>
-        <v>82.682827074845179</v>
+        <v>99.409941114586204</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>23</v>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FFD2F7-C1A7-4C47-B753-39FBB308908C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3BEB2-0058-49BE-855E-F02048C90788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3BEB2-0058-49BE-855E-F02048C90788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A259B-7749-4F68-A1FA-8E780F2E16D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Umf+Ut~NETL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="461">
   <si>
     <t>MINIMUM FLUIDIZATION VELOCITY CALCULATIONS</t>
   </si>
@@ -1716,6 +1716,17 @@
     <t>)</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>dpvf0.378</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpvf0.43</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2029,7 +2040,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2140,6 +2151,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3268,6 +3282,1117 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>v-dp </a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43690165361183647"/>
+          <c:y val="2.6666666666666668E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>V_DP!$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dpvf0.43</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>V_DP!$I$12:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>V_DP!$J$12:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>32.222455128205098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.712307692307704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.380762307692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.94047499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156.73471282051301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161.28121025640999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.93140500000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164.18641249999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>163.007787179487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>159.72105875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>156.918818974359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>161.956142051282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>161.20088874999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>168.32291384615399</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170.73399474999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>170.527782051282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E31-450B-ACE9-A4E8536F6B93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>V_DP!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dpvf0.378</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>V_DP!$I$12:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>V_DP!$K$12:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>32.222424102564098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.712245641025604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.381103589744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.94017249999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>156.75705128205101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161.25887179487199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.04272499999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164.05543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.51514358974401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>158.52470149999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E31-450B-ACE9-A4E8536F6B93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="957900848"/>
+        <c:axId val="982471888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="957900848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982471888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="982471888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="957900848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -3565,6 +4690,47 @@
     </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C5407F-7B38-4A20-A273-7BA48AD85269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7739,7 +8905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -38352,8 +39518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625480FF-265A-4FCF-9932-4795234AB610}">
   <dimension ref="A1:FY200"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175:B200"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -39668,6 +40834,15 @@
       <c r="G11" t="s">
         <v>216</v>
       </c>
+      <c r="I11" s="71" t="s">
+        <v>458</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>460</v>
+      </c>
+      <c r="K11" s="71" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="12" spans="1:181">
       <c r="A12" t="s">
@@ -39692,6 +40867,15 @@
       <c r="G12" t="s">
         <v>217</v>
       </c>
+      <c r="I12" s="71">
+        <v>0.05</v>
+      </c>
+      <c r="J12" s="71">
+        <v>32.222455128205098</v>
+      </c>
+      <c r="K12" s="71">
+        <v>32.222424102564098</v>
+      </c>
     </row>
     <row r="13" spans="1:181">
       <c r="A13" t="s">
@@ -39716,6 +40900,15 @@
       <c r="G13" t="s">
         <v>218</v>
       </c>
+      <c r="I13" s="71">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="71">
+        <v>65.712307692307704</v>
+      </c>
+      <c r="K13" s="71">
+        <v>65.712245641025604</v>
+      </c>
     </row>
     <row r="14" spans="1:181">
       <c r="A14" t="s">
@@ -39740,6 +40933,15 @@
       <c r="G14" t="s">
         <v>219</v>
       </c>
+      <c r="I14" s="71">
+        <v>0.15</v>
+      </c>
+      <c r="J14" s="71">
+        <v>100.380762307692</v>
+      </c>
+      <c r="K14" s="71">
+        <v>100.381103589744</v>
+      </c>
     </row>
     <row r="15" spans="1:181">
       <c r="A15" t="s">
@@ -39764,6 +40966,15 @@
       <c r="G15" t="s">
         <v>220</v>
       </c>
+      <c r="I15" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="71">
+        <v>135.94047499999999</v>
+      </c>
+      <c r="K15" s="71">
+        <v>135.94017249999999</v>
+      </c>
     </row>
     <row r="16" spans="1:181">
       <c r="A16" t="s">
@@ -39788,8 +40999,17 @@
       <c r="G16" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="71">
+        <v>0.25</v>
+      </c>
+      <c r="J16" s="71">
+        <v>156.73471282051301</v>
+      </c>
+      <c r="K16" s="71">
+        <v>156.75705128205101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -39812,8 +41032,17 @@
       <c r="G17" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="71">
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="71">
+        <v>161.28121025640999</v>
+      </c>
+      <c r="K17" s="71">
+        <v>161.25887179487199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -39836,8 +41065,17 @@
       <c r="G18" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="71">
+        <v>0.35</v>
+      </c>
+      <c r="J18" s="71">
+        <v>163.93140500000001</v>
+      </c>
+      <c r="K18" s="71">
+        <v>164.04272499999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -39860,8 +41098,17 @@
       <c r="G19" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="71">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="71">
+        <v>164.18641249999999</v>
+      </c>
+      <c r="K19" s="71">
+        <v>164.05543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -39884,8 +41131,17 @@
       <c r="G20" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="71">
+        <v>0.45</v>
+      </c>
+      <c r="J20" s="71">
+        <v>163.007787179487</v>
+      </c>
+      <c r="K20" s="71">
+        <v>161.51514358974401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -39908,8 +41164,17 @@
       <c r="G21" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="71">
+        <v>159.72105875</v>
+      </c>
+      <c r="K21" s="71">
+        <v>158.52470149999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -39932,8 +41197,14 @@
       <c r="G22" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" s="71">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J22" s="71">
+        <v>156.918818974359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -39956,8 +41227,14 @@
       <c r="G23" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" s="71">
+        <v>0.6</v>
+      </c>
+      <c r="J23" s="71">
+        <v>161.956142051282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -39980,8 +41257,14 @@
       <c r="G24" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" s="71">
+        <v>0.65</v>
+      </c>
+      <c r="J24" s="71">
+        <v>161.20088874999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -40004,8 +41287,14 @@
       <c r="G25" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" s="71">
+        <v>0.7</v>
+      </c>
+      <c r="J25" s="71">
+        <v>168.32291384615399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -40028,8 +41317,14 @@
       <c r="G26" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" s="71">
+        <v>0.75</v>
+      </c>
+      <c r="J26" s="71">
+        <v>170.73399474999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -40052,8 +41347,14 @@
       <c r="G27" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" s="71">
+        <v>0.8</v>
+      </c>
+      <c r="J27" s="71">
+        <v>170.527782051282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -40077,7 +41378,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -40101,7 +41402,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -40125,7 +41426,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -40149,7 +41450,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -43599,6 +44900,7 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -43607,7 +44909,7 @@
   <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -43950,11 +45252,11 @@
       </c>
       <c r="B15">
         <f>B18/B19/((1-B16)*3.141592654*B20^2)</f>
-        <v>5.9439695708681031E-3</v>
+        <v>1.6205138093208827E-2</v>
       </c>
       <c r="D15">
         <f>B15-B17</f>
-        <v>5.6939695708681029E-3</v>
+        <v>1.5955138093208827E-2</v>
       </c>
       <c r="F15">
         <v>0.44</v>
@@ -43981,6 +45283,9 @@
         <v>448</v>
       </c>
       <c r="B16">
+        <v>0.43</v>
+      </c>
+      <c r="C16">
         <v>0.37840000000000001</v>
       </c>
       <c r="H16" t="s">
@@ -44029,7 +45334,7 @@
         <v>454</v>
       </c>
       <c r="B18">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="H18" t="s">
         <v>456</v>
@@ -49733,7 +51038,7 @@
   <dimension ref="B3:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A259B-7749-4F68-A1FA-8E780F2E16D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C08CE6-044E-4DD5-A265-7294F076FBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="276" yWindow="636" windowWidth="20736" windowHeight="10524" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Umf+Ut~NETL" sheetId="1" r:id="rId1"/>
@@ -39518,8 +39518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625480FF-265A-4FCF-9932-4795234AB610}">
   <dimension ref="A1:FY200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -49237,8 +49237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03506B64-8534-423C-BE78-F03DA3AD3605}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -49417,7 +49417,7 @@
         <v>87</v>
       </c>
       <c r="B29" s="46">
-        <v>0.37844499999999998</v>
+        <v>0.43</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -50285,7 +50285,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -50318,7 +50318,7 @@
       </c>
       <c r="C2" s="17">
         <f>1.75*(C16*C6*C14)^2/(C19*C17^3*C18^2)</f>
-        <v>1257.8952734457414</v>
+        <v>1928.6199811460338</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -50339,7 +50339,7 @@
       </c>
       <c r="C3" s="20">
         <f>150*(1-C17)*C16*C6*C14/(C18*C17^3*C19^2)</f>
-        <v>10736.976056736947</v>
+        <v>10066.250599331714</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="17"/>
@@ -50381,7 +50381,7 @@
       </c>
       <c r="C5" s="21">
         <f>C2+C3-C4</f>
-        <v>-4.5277771278051659E-5</v>
+        <v>-7.9498271225020289E-4</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17"/>
@@ -50401,7 +50401,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="30">
-        <v>0.18776715165095156</v>
+        <v>0.28159688036591063</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>50</v>
@@ -50422,7 +50422,7 @@
       <c r="B7" s="32"/>
       <c r="C7" s="33">
         <f>100*C6</f>
-        <v>18.776715165095155</v>
+        <v>28.159688036591064</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>23</v>
@@ -50461,7 +50461,7 @@
       </c>
       <c r="C9" s="23">
         <f>(C14*C16*C3)/C18</f>
-        <v>356911.98804556613</v>
+        <v>334616.14281220851</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
@@ -50628,7 +50628,7 @@
         <v>52</v>
       </c>
       <c r="C17" s="21">
-        <v>0.37844</v>
+        <v>0.43</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -50754,7 +50754,7 @@
   <dimension ref="B3:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -50948,7 +50948,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="21">
-        <v>0.37844499999999998</v>
+        <v>0.43</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -51038,7 +51038,7 @@
   <dimension ref="B3:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -51085,7 +51085,7 @@
       </c>
       <c r="C5" s="35">
         <f>'Umf~Ergun'!C7</f>
-        <v>18.776715165095155</v>
+        <v>28.159688036591064</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>23</v>
@@ -51138,7 +51138,7 @@
       </c>
       <c r="C8" s="39">
         <f>AVERAGE(C4:C6)</f>
-        <v>19.88198822291724</v>
+        <v>23.009645846749208</v>
       </c>
       <c r="D8" s="35" t="s">
         <v>23</v>
@@ -51155,7 +51155,7 @@
       </c>
       <c r="C10" s="41">
         <f>3*$C$8</f>
-        <v>59.645964668751716</v>
+        <v>69.028937540247625</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>23</v>
@@ -51167,7 +51167,7 @@
       </c>
       <c r="C11" s="41">
         <f>4*$C$8</f>
-        <v>79.52795289166896</v>
+        <v>92.038583386996834</v>
       </c>
       <c r="D11" s="42" t="s">
         <v>23</v>
@@ -51179,7 +51179,7 @@
       </c>
       <c r="C12" s="41">
         <f>5*$C$8</f>
-        <v>99.409941114586204</v>
+        <v>115.04822923374604</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>23</v>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C08CE6-044E-4DD5-A265-7294F076FBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF78DA-0172-411D-AB5D-0DB40C92F594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="276" yWindow="636" windowWidth="20736" windowHeight="10524" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Umf+Ut~NETL" sheetId="1" r:id="rId1"/>
@@ -19,24 +19,29 @@
     <sheet name="Umf+Ut~Kunii" sheetId="3" r:id="rId4"/>
     <sheet name="Ut~Rabinovich" sheetId="11" r:id="rId5"/>
     <sheet name="Umf~Ergun" sheetId="4" r:id="rId6"/>
-    <sheet name="Umf~" sheetId="12" r:id="rId7"/>
+    <sheet name="nUmf~" sheetId="12" r:id="rId7"/>
     <sheet name="Umf+Ut~Simulationvalues" sheetId="5" r:id="rId8"/>
     <sheet name="Datasheet" sheetId="2" r:id="rId9"/>
     <sheet name="Sim_CASES" sheetId="9" r:id="rId10"/>
     <sheet name="CASES_STEP" sheetId="8" r:id="rId11"/>
     <sheet name="V_DP" sheetId="13" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
+    <sheet name="heightbed" sheetId="15" r:id="rId13"/>
     <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">Sheet3!$E$1:$E$50</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">V_DP!$I$12:$I$27</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">V_DP!$J$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">V_DP!$J$12:$J$27</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">V_DP!$K$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">V_DP!$K$12:$K$27</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="463">
   <si>
     <t>MINIMUM FLUIDIZATION VELOCITY CALCULATIONS</t>
   </si>
@@ -1727,6 +1732,27 @@
     <t>dpvf0.43</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
+  <si>
+    <t>Ergun</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mean υ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mf</t>
+    </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2152,7 +2178,7 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3303,11 +3329,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3316,10 +3342,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:rPr lang="en-US"/>
               <a:t>v-dp </a:t>
             </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3327,7 +3353,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.43690165361183647"/>
+          <c:x val="0.47342602935878692"/>
           <c:y val="2.6666666666666668E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3344,11 +3370,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3381,7 +3407,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3528,7 +3554,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3650,6 +3676,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="957900848"/>
         <c:axId val="982471888"/>
@@ -3661,6 +3702,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>v (m/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3669,7 +3766,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3683,9 +3780,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3712,20 +3809,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>dp (Pa)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3742,9 +3881,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3762,7 +3901,19 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3786,7 +3937,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -3806,11 +3957,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3878,25 +4029,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3904,7 +4055,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -3913,38 +4087,15 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3978,46 +4129,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4029,33 +4194,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4071,21 +4237,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4100,13 +4264,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -4119,14 +4283,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4138,17 +4303,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -4157,31 +4321,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -4190,17 +4347,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -4209,17 +4365,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4228,17 +4383,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -4247,27 +4401,42 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4275,11 +4444,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4287,17 +4467,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4306,12 +4486,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4320,14 +4500,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4336,7 +4515,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -4356,9 +4535,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4369,26 +4548,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4697,16 +4870,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10483,7 +10656,7 @@
   <dimension ref="A1:U317"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B35" sqref="B35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -11692,7 +11865,9 @@
       <c r="U28" s="55"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="55"/>
+      <c r="A29" s="55" t="s">
+        <v>461</v>
+      </c>
       <c r="B29" s="55"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
@@ -11776,7 +11951,7 @@
       </c>
       <c r="C31" s="17">
         <f>1.75*(C45*C35*C43)^2/(C48*C46^3*C47^2)</f>
-        <v>36157.295210850891</v>
+        <v>1928.6202295869973</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -11820,7 +11995,7 @@
       </c>
       <c r="C32" s="20">
         <f>150*(1-C46)*C45*C35*C43/(C47*C46^3*C48^2)</f>
-        <v>72558.196045360164</v>
+        <v>10066.251247688817</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="17"/>
@@ -11864,7 +12039,7 @@
       </c>
       <c r="C33" s="21">
         <f>C45^3*C43*(C44-C43)*C49/(C47^2)</f>
-        <v>1401874.1723681756</v>
+        <v>11994.87137546046</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="17"/>
@@ -11908,7 +12083,7 @@
       </c>
       <c r="C34" s="21">
         <f>C31+C32-C33</f>
-        <v>-1293158.6811119646</v>
+        <v>1.0181535435549449E-4</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="17"/>
@@ -11951,7 +12126,7 @@
         <v>76</v>
       </c>
       <c r="C35" s="30">
-        <v>0.14311045492083774</v>
+        <v>0.28159689850328318</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>50</v>
@@ -11995,7 +12170,7 @@
       <c r="B36" s="32"/>
       <c r="C36" s="33">
         <f>100*C35</f>
-        <v>14.311045492083775</v>
+        <v>28.159689850328316</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>23</v>
@@ -12080,7 +12255,7 @@
       </c>
       <c r="C38" s="23">
         <f>(C43*C45*C32)/C47</f>
-        <v>15706521.723241797</v>
+        <v>334616.16436449857</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
@@ -12341,7 +12516,7 @@
         <v>60</v>
       </c>
       <c r="C44" s="18">
-        <v>1131</v>
+        <v>2670.7</v>
       </c>
       <c r="D44" s="19" t="s">
         <v>61</v>
@@ -12386,7 +12561,7 @@
         <v>62</v>
       </c>
       <c r="C45" s="25">
-        <v>3.2560000000000002E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>51</v>
@@ -12431,7 +12606,7 @@
         <v>52</v>
       </c>
       <c r="C46" s="21">
-        <v>0.37844</v>
+        <v>0.43</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -12520,7 +12695,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="21">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>77</v>
@@ -22068,7 +22243,7 @@
   <dimension ref="A1:AX316"/>
   <sheetViews>
     <sheetView topLeftCell="H4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AX316"/>
+      <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -39518,8 +39693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625480FF-265A-4FCF-9932-4795234AB610}">
   <dimension ref="A1:FY200"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -40763,7 +40938,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:181">
+    <row r="9" spans="1:181" ht="14.4">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -40786,8 +40961,17 @@
       <c r="G9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="10" spans="1:181">
+      <c r="I9" s="29" t="s">
+        <v>462</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.28159689850328318</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:181" ht="13.2">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -40810,6 +40994,14 @@
       <c r="G10" t="s">
         <v>215</v>
       </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33">
+        <f>100*J9</f>
+        <v>28.159689850328316</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:181">
       <c r="A11" t="s">
@@ -41203,6 +41395,7 @@
       <c r="J22" s="71">
         <v>156.918818974359</v>
       </c>
+      <c r="K22" s="61"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
@@ -41233,6 +41426,7 @@
       <c r="J23" s="71">
         <v>161.956142051282</v>
       </c>
+      <c r="K23" s="61"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
@@ -41263,6 +41457,7 @@
       <c r="J24" s="71">
         <v>161.20088874999999</v>
       </c>
+      <c r="K24" s="61"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
@@ -41293,6 +41488,7 @@
       <c r="J25" s="71">
         <v>168.32291384615399</v>
       </c>
+      <c r="K25" s="61"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
@@ -41323,6 +41519,7 @@
       <c r="J26" s="71">
         <v>170.73399474999999</v>
       </c>
+      <c r="K26" s="61"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
@@ -41353,6 +41550,7 @@
       <c r="J27" s="71">
         <v>170.527782051282</v>
       </c>
+      <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
@@ -41377,6 +41575,9 @@
       <c r="G28" t="s">
         <v>233</v>
       </c>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
@@ -44909,7 +45110,7 @@
   <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -49237,7 +49438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03506B64-8534-423C-BE78-F03DA3AD3605}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -50754,7 +50955,7 @@
   <dimension ref="B3:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -50766,7 +50967,7 @@
       <c r="B3" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="41">
         <v>0.16539999999999999</v>
       </c>
       <c r="D3" s="35"/>
@@ -51038,7 +51239,7 @@
   <dimension ref="B3:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -51128,7 +51329,7 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="H7">
-        <f>'Umf~'!L4</f>
+        <f>'nUmf~'!L4</f>
         <v>1.524451106058452</v>
       </c>
     </row>
@@ -51196,7 +51397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF78DA-0172-411D-AB5D-0DB40C92F594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848B533A-41BE-4C50-BDDA-293D8B33F46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Umf+Ut~NETL" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Ut~Rabinovich" sheetId="11" r:id="rId5"/>
     <sheet name="Umf~Ergun" sheetId="4" r:id="rId6"/>
     <sheet name="nUmf~" sheetId="12" r:id="rId7"/>
-    <sheet name="Umf+Ut~Simulationvalues" sheetId="5" r:id="rId8"/>
-    <sheet name="Datasheet" sheetId="2" r:id="rId9"/>
+    <sheet name="Datasheet" sheetId="2" r:id="rId8"/>
+    <sheet name="Umf+Ut~Simulationvalues" sheetId="5" r:id="rId9"/>
     <sheet name="Sim_CASES" sheetId="9" r:id="rId10"/>
     <sheet name="CASES_STEP" sheetId="8" r:id="rId11"/>
     <sheet name="V_DP" sheetId="13" r:id="rId12"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="463">
   <si>
     <t>MINIMUM FLUIDIZATION VELOCITY CALCULATIONS</t>
   </si>
@@ -1737,21 +1737,7 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>mean υ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mf</t>
-    </r>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <t>Mean, υmf</t>
   </si>
 </sst>
 </file>
@@ -10655,7 +10641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D40DBD-21D5-4C58-9D9C-24AD11969AFA}">
   <dimension ref="A1:U317"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35:D36"/>
     </sheetView>
   </sheetViews>
@@ -39694,12 +39680,13 @@
   <dimension ref="A1:FY200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:181">
@@ -40938,7 +40925,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:181" ht="14.4">
+    <row r="9" spans="1:181" ht="13.2">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -40965,10 +40952,10 @@
         <v>462</v>
       </c>
       <c r="J9" s="30">
-        <v>0.28159689850328318</v>
+        <v>23.009645846749208</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="13.2">
@@ -40996,11 +40983,10 @@
       </c>
       <c r="I10" s="32"/>
       <c r="J10" s="33">
-        <f>100*J9</f>
-        <v>28.159689850328316</v>
+        <v>0.23009645846749208</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:181">
@@ -51235,165 +51221,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0710BE-73C1-4DA8-957E-5E35F79737E7}">
-  <dimension ref="B3:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:9" ht="14.4">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="H3" s="63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="14.4">
-      <c r="B4" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="35">
-        <f>'Umf~WenandYu'!$B6</f>
-        <v>19.891739530682486</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H4">
-        <f>'Ut~Khan&amp;Richardson'!B3</f>
-        <v>3.9368211550490027</v>
-      </c>
-      <c r="I4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="35">
-        <f>'Umf~Ergun'!C7</f>
-        <v>28.159688036591064</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5">
-        <f>'Umf+Ut~Kunii'!P17</f>
-        <v>1.9226559564080192</v>
-      </c>
-      <c r="I5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="35">
-        <f>'Umf+Ut~Kunii'!C4</f>
-        <v>20.977509972974083</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6">
-        <f>'Ut~Rabinovich'!B3</f>
-        <v>3.7454295960412471</v>
-      </c>
-      <c r="I6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="H7">
-        <f>'nUmf~'!L4</f>
-        <v>1.524451106058452</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.6">
-      <c r="B8" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="39">
-        <f>AVERAGE(C4:C6)</f>
-        <v>23.009645846749208</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-    </row>
-    <row r="10" spans="2:9" ht="15.6">
-      <c r="B10" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="41">
-        <f>3*$C$8</f>
-        <v>69.028937540247625</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.6">
-      <c r="B11" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="41">
-        <f>4*$C$8</f>
-        <v>92.038583386996834</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.6">
-      <c r="B12" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="41">
-        <f>5*$C$8</f>
-        <v>115.04822923374604</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E1000"/>
   <sheetViews>
@@ -52960,4 +52787,168 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0710BE-73C1-4DA8-957E-5E35F79737E7}">
+  <dimension ref="B3:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="14.4">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="H3" s="63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="14.4">
+      <c r="B4" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="35">
+        <f>'Umf~WenandYu'!$B6</f>
+        <v>19.891739530682486</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4">
+        <f>'Ut~Khan&amp;Richardson'!B3</f>
+        <v>3.9368211550490027</v>
+      </c>
+      <c r="I4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="35">
+        <f>'Umf~Ergun'!C7</f>
+        <v>28.159688036591064</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5">
+        <f>'Umf+Ut~Kunii'!P17</f>
+        <v>1.9226559564080192</v>
+      </c>
+      <c r="I5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="35">
+        <f>'Umf+Ut~Kunii'!C4</f>
+        <v>20.977509972974083</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6">
+        <f>'Ut~Rabinovich'!B3</f>
+        <v>3.7454295960412471</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="H7">
+        <f>'nUmf~'!L4</f>
+        <v>1.524451106058452</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.6">
+      <c r="B8" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="39">
+        <f>AVERAGE(C4:C6)</f>
+        <v>23.009645846749208</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35">
+        <f>C8/100</f>
+        <v>0.23009645846749208</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.6">
+      <c r="B10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="41">
+        <f>3*$C$8</f>
+        <v>69.028937540247625</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.6">
+      <c r="B11" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="41">
+        <f>4*$C$8</f>
+        <v>92.038583386996834</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.6">
+      <c r="B12" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="41">
+        <f>5*$C$8</f>
+        <v>115.04822923374604</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848B533A-41BE-4C50-BDDA-293D8B33F46F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CD5AD-DFED-4737-9286-F68D8D3634C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Umf+Ut~NETL" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="464">
   <si>
     <t>MINIMUM FLUIDIZATION VELOCITY CALCULATIONS</t>
   </si>
@@ -1739,6 +1739,10 @@
   <si>
     <t>Mean, υmf</t>
   </si>
+  <si>
+    <t>dpvf0.43newstl</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2052,7 +2056,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2163,6 +2167,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3654,6 +3661,153 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>V_DP!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dpvf0.43newstl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>V_DP!$I$12:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>V_DP!$L$12:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>32.5019961538462</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.284885897435899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.23896256410301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.02705499999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>157.48212051282101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>161.83936153846199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>164.36367749999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>165.07909000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>163.060841025641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>160.26755524999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159.281731794872</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163.51518051282099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>161.83223649999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>168.28980948717901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170.45188325000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>173.596186923077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2E31-450B-ACE9-A4E8536F6B93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4856,16 +5010,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39679,14 +39833,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625480FF-265A-4FCF-9932-4795234AB610}">
   <dimension ref="A1:FY200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="8.77734375" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:181">
@@ -41012,14 +41167,17 @@
       <c r="G11" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="71" t="s">
+      <c r="I11" s="72" t="s">
         <v>458</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="72" t="s">
         <v>460</v>
       </c>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="72" t="s">
         <v>459</v>
+      </c>
+      <c r="L11" s="71" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:181">
@@ -41045,14 +41203,17 @@
       <c r="G12" t="s">
         <v>217</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="72">
         <v>0.05</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="72">
         <v>32.222455128205098</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="72">
         <v>32.222424102564098</v>
+      </c>
+      <c r="L12" s="71">
+        <v>32.5019961538462</v>
       </c>
     </row>
     <row r="13" spans="1:181">
@@ -41078,14 +41239,17 @@
       <c r="G13" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="72">
         <v>0.1</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="72">
         <v>65.712307692307704</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K13" s="72">
         <v>65.712245641025604</v>
+      </c>
+      <c r="L13" s="71">
+        <v>66.284885897435899</v>
       </c>
     </row>
     <row r="14" spans="1:181">
@@ -41111,14 +41275,17 @@
       <c r="G14" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="72">
         <v>0.15</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="72">
         <v>100.380762307692</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="72">
         <v>100.381103589744</v>
+      </c>
+      <c r="L14" s="71">
+        <v>101.23896256410301</v>
       </c>
     </row>
     <row r="15" spans="1:181">
@@ -41144,14 +41311,17 @@
       <c r="G15" t="s">
         <v>220</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="72">
         <v>0.2</v>
       </c>
-      <c r="J15" s="71">
+      <c r="J15" s="72">
         <v>135.94047499999999</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="72">
         <v>135.94017249999999</v>
+      </c>
+      <c r="L15" s="71">
+        <v>137.02705499999999</v>
       </c>
     </row>
     <row r="16" spans="1:181">
@@ -41177,17 +41347,20 @@
       <c r="G16" t="s">
         <v>221</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="72">
         <v>0.25</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="72">
         <v>156.73471282051301</v>
       </c>
-      <c r="K16" s="71">
+      <c r="K16" s="72">
         <v>156.75705128205101</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="71">
+        <v>157.48212051282101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -41210,17 +41383,20 @@
       <c r="G17" t="s">
         <v>222</v>
       </c>
-      <c r="I17" s="71">
+      <c r="I17" s="72">
         <v>0.3</v>
       </c>
-      <c r="J17" s="71">
+      <c r="J17" s="72">
         <v>161.28121025640999</v>
       </c>
-      <c r="K17" s="71">
+      <c r="K17" s="72">
         <v>161.25887179487199</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="71">
+        <v>161.83936153846199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -41243,17 +41419,20 @@
       <c r="G18" t="s">
         <v>223</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="72">
         <v>0.35</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="72">
         <v>163.93140500000001</v>
       </c>
-      <c r="K18" s="71">
+      <c r="K18" s="72">
         <v>164.04272499999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="71">
+        <v>164.36367749999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -41276,17 +41455,20 @@
       <c r="G19" t="s">
         <v>224</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="72">
         <v>0.4</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="72">
         <v>164.18641249999999</v>
       </c>
-      <c r="K19" s="71">
+      <c r="K19" s="72">
         <v>164.05543</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="71">
+        <v>165.07909000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -41309,17 +41491,20 @@
       <c r="G20" t="s">
         <v>225</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="72">
         <v>0.45</v>
       </c>
-      <c r="J20" s="71">
+      <c r="J20" s="72">
         <v>163.007787179487</v>
       </c>
-      <c r="K20" s="71">
+      <c r="K20" s="72">
         <v>161.51514358974401</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="71">
+        <v>163.060841025641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -41342,17 +41527,20 @@
       <c r="G21" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="72">
         <v>0.5</v>
       </c>
-      <c r="J21" s="71">
+      <c r="J21" s="72">
         <v>159.72105875</v>
       </c>
-      <c r="K21" s="71">
+      <c r="K21" s="72">
         <v>158.52470149999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="71">
+        <v>160.26755524999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -41375,15 +41563,18 @@
       <c r="G22" t="s">
         <v>227</v>
       </c>
-      <c r="I22" s="71">
+      <c r="I22" s="72">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J22" s="71">
+      <c r="J22" s="72">
         <v>156.918818974359</v>
       </c>
       <c r="K22" s="61"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="71">
+        <v>159.281731794872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -41406,15 +41597,18 @@
       <c r="G23" t="s">
         <v>228</v>
       </c>
-      <c r="I23" s="71">
+      <c r="I23" s="72">
         <v>0.6</v>
       </c>
-      <c r="J23" s="71">
+      <c r="J23" s="72">
         <v>161.956142051282</v>
       </c>
       <c r="K23" s="61"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="71">
+        <v>163.51518051282099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -41437,15 +41631,18 @@
       <c r="G24" t="s">
         <v>229</v>
       </c>
-      <c r="I24" s="71">
+      <c r="I24" s="72">
         <v>0.65</v>
       </c>
-      <c r="J24" s="71">
+      <c r="J24" s="72">
         <v>161.20088874999999</v>
       </c>
       <c r="K24" s="61"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="71">
+        <v>161.83223649999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -41468,15 +41665,18 @@
       <c r="G25" t="s">
         <v>230</v>
       </c>
-      <c r="I25" s="71">
+      <c r="I25" s="72">
         <v>0.7</v>
       </c>
-      <c r="J25" s="71">
+      <c r="J25" s="72">
         <v>168.32291384615399</v>
       </c>
       <c r="K25" s="61"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="71">
+        <v>168.28980948717901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -41499,15 +41699,18 @@
       <c r="G26" t="s">
         <v>231</v>
       </c>
-      <c r="I26" s="71">
+      <c r="I26" s="72">
         <v>0.75</v>
       </c>
-      <c r="J26" s="71">
+      <c r="J26" s="72">
         <v>170.73399474999999</v>
       </c>
       <c r="K26" s="61"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="71">
+        <v>170.45188325000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -41530,15 +41733,18 @@
       <c r="G27" t="s">
         <v>232</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="72">
         <v>0.8</v>
       </c>
-      <c r="J27" s="71">
+      <c r="J27" s="72">
         <v>170.527782051282</v>
       </c>
       <c r="K27" s="61"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="71">
+        <v>173.596186923077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -41565,7 +41771,7 @@
       <c r="J28" s="61"/>
       <c r="K28" s="61"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -41589,7 +41795,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -41613,7 +41819,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -41637,7 +41843,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -45087,7 +45293,8 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -48426,7 +48633,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I26"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B50151-E7C2-4A9D-BDB7-234CBB697A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60578BF-E9F1-4AF4-8101-679E106AA6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60578BF-E9F1-4AF4-8101-679E106AA6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C62B8-148D-46D1-9013-CD1EB6BED8BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0C62B8-148D-46D1-9013-CD1EB6BED8BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C746A684-8134-4284-9CFF-C95C3DF4AAC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Umf+Ut~NETL" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Sim_CASES" sheetId="9" r:id="rId10"/>
     <sheet name="CASES_STEP" sheetId="8" r:id="rId11"/>
     <sheet name="V_DP" sheetId="13" r:id="rId12"/>
-    <sheet name="heightbed" sheetId="15" r:id="rId13"/>
+    <sheet name="h_bed-dp" sheetId="15" r:id="rId13"/>
     <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="473">
   <si>
     <t>MINIMUM FLUIDIZATION VELOCITY CALCULATIONS</t>
   </si>
@@ -1816,6 +1816,22 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>nparticels</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp_umf-Ergun</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pa</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -3880,6 +3896,43 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-2E31-450B-ACE9-A4E8536F6B93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>dp_Umf-Ergun</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>V_DP!$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>188.88308538424201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2E31-450B-ACE9-A4E8536F6B93}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6188,16 +6241,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>594358</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1757</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6224,16 +6277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17587</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>287767</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>510507</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6256,6 +6309,55 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601979</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>584448</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7B48863-1B2B-4792-9523-BFDDA962351E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2994659" y="6553200"/>
+          <a:ext cx="2809489" cy="1150620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -41047,8 +41149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625480FF-265A-4FCF-9932-4795234AB610}">
   <dimension ref="A1:FY200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J22"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -42321,10 +42423,19 @@
         <v>462</v>
       </c>
       <c r="J9" s="30">
-        <v>23.009645846749208</v>
+        <v>23.009645846749201</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>23</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="M9" s="30">
+        <v>188.88308538424201</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:181" ht="13.2" x14ac:dyDescent="0.25">
@@ -42393,6 +42504,9 @@
       <c r="L11" s="71" t="s">
         <v>463</v>
       </c>
+      <c r="M11" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="12" spans="1:181" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -43007,6 +43121,12 @@
       </c>
       <c r="G29" t="s">
         <v>234</v>
+      </c>
+      <c r="I29">
+        <v>0.23009645846749199</v>
+      </c>
+      <c r="J29">
+        <v>188.88308538424201</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -46516,14 +46636,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209E1E1-E7F4-4767-A171-44374C246217}">
   <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="8" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="2.77734375" customWidth="1"/>
     <col min="12" max="12" width="2.5546875" customWidth="1"/>
@@ -47064,6 +47185,13 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>469</v>
+      </c>
+      <c r="B24">
+        <f>B18/(4/3*3.14*B17^3*B19)</f>
+        <v>286191.33942078211</v>
+      </c>
       <c r="H24" t="s">
         <v>456</v>
       </c>
@@ -47136,6 +47264,15 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.23009645846749208</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
       <c r="H28" t="s">
         <v>456</v>
       </c>
@@ -47154,6 +47291,16 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="E29" s="61">
+        <f>150*D15*(1-E37)^2*E38*E28/(E37^3*E36^2)+1.75*D15*(1-E37)*E34*E28^2/(E37^3*E36)</f>
+        <v>188.88308538424238</v>
+      </c>
+      <c r="F29" t="s">
+        <v>472</v>
+      </c>
       <c r="H29" t="s">
         <v>456</v>
       </c>
@@ -47189,7 +47336,14 @@
         <v>457</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="17"/>
       <c r="H31" t="s">
         <v>456</v>
       </c>
@@ -47207,7 +47361,16 @@
         <v>457</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D32" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="17">
+        <v>293</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="H32" t="s">
         <v>456</v>
       </c>
@@ -47225,7 +47388,16 @@
         <v>457</v>
       </c>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D33" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="H33" t="s">
         <v>456</v>
       </c>
@@ -47243,7 +47415,17 @@
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:12" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="D34" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="24">
+        <f>1000*273*0.0012946*E33/E32</f>
+        <v>1.2062313993174061</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" t="s">
         <v>456</v>
       </c>
@@ -47261,7 +47443,16 @@
         <v>457</v>
       </c>
     </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:12" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="D35" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="18">
+        <v>2670.7</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="H35" t="s">
         <v>456</v>
       </c>
@@ -47279,7 +47470,16 @@
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="D36" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="25">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="H36" t="s">
         <v>456</v>
       </c>
@@ -47297,7 +47497,14 @@
         <v>457</v>
       </c>
     </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D37" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="F37" s="19"/>
       <c r="H37" t="s">
         <v>456</v>
       </c>
@@ -47315,7 +47522,17 @@
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D38" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="27">
+        <f>((E32/273)^1.5)*383*0.0001717/(110+E32)/10</f>
+        <v>1.8143517291582025E-5</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="H38" t="s">
         <v>456</v>
       </c>
@@ -47333,7 +47550,16 @@
         <v>457</v>
       </c>
     </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D39" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="H39" t="s">
         <v>456</v>
       </c>
@@ -47351,7 +47577,16 @@
         <v>457</v>
       </c>
     </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:12" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D40" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="26">
+        <v>9.81</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>63</v>
+      </c>
       <c r="H40" t="s">
         <v>456</v>
       </c>
@@ -47369,7 +47604,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H41" t="s">
         <v>456</v>
       </c>
@@ -47387,7 +47622,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="42" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H42" t="s">
         <v>456</v>
       </c>
@@ -47405,7 +47640,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="43" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
         <v>456</v>
       </c>
@@ -47423,7 +47658,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="44" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H44" t="s">
         <v>456</v>
       </c>
@@ -47441,7 +47676,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H45" t="s">
         <v>456</v>
       </c>
@@ -47459,7 +47694,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="46" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H46" t="s">
         <v>456</v>
       </c>
@@ -47477,7 +47712,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H47" t="s">
         <v>456</v>
       </c>
@@ -47495,7 +47730,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="48" spans="8:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
       <c r="H48" t="s">
         <v>456</v>
       </c>
@@ -49839,6 +50074,7 @@
   <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -52362,7 +52598,7 @@
   <dimension ref="B3:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B10" sqref="B10:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -52645,7 +52881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -54212,10 +54448,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0710BE-73C1-4DA8-957E-5E35F79737E7}">
-  <dimension ref="B3:I18"/>
+  <dimension ref="B3:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -54224,7 +54460,7 @@
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="35"/>
       <c r="C3" s="36" t="s">
         <v>81</v>
@@ -54234,7 +54470,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="37" t="s">
         <v>79</v>
       </c>
@@ -54256,7 +54492,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
         <v>39</v>
       </c>
@@ -54278,7 +54514,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="35" t="s">
         <v>80</v>
       </c>
@@ -54300,7 +54536,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -54309,7 +54545,7 @@
         <v>1.524451106058452</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B8" s="38" t="s">
         <v>82</v>
       </c>
@@ -54321,7 +54557,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="35"/>
       <c r="C9" s="35">
         <f>C8/100</f>
@@ -54331,7 +54567,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B10" s="40" t="s">
         <v>83</v>
       </c>
@@ -54343,7 +54579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B11" s="40" t="s">
         <v>84</v>
       </c>
@@ -54355,7 +54591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B12" s="40" t="s">
         <v>85</v>
       </c>
@@ -54366,8 +54602,11 @@
       <c r="D12" s="42" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B13" s="40" t="s">
         <v>464</v>
       </c>
@@ -54376,7 +54615,7 @@
         <v>161.06752092724446</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B14" s="40" t="s">
         <v>465</v>
       </c>
@@ -54385,7 +54624,7 @@
         <v>207.08681262074288</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B15" s="40" t="s">
         <v>466</v>
       </c>
@@ -54394,7 +54633,7 @@
         <v>253.10610431424129</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B16" s="40" t="s">
         <v>467</v>
       </c>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C746A684-8134-4284-9CFF-C95C3DF4AAC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147E6296-B2EF-4483-A47F-5148714BF24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41150,7 +41150,7 @@
   <dimension ref="A1:FY200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:J29"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/BFBR2/Umf+Ut~DrNour.xlsx
+++ b/BFBR2/Umf+Ut~DrNour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BFBR\BFBR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5755AB5-4FE3-468F-97D8-C52BCE83A87C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F737F-0FE3-484B-A8EA-900D7D078E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="10" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Umf+Ut~NETL" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="475">
   <si>
     <t>MINIMUM FLUIDIZATION VELOCITY CALCULATIONS</t>
   </si>
@@ -1835,7 +1835,11 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>dpvf0.43newstlGasin</t>
+    <t>dpvf0.43newstlGasinLow</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpvf0.43newstlGasinHigh</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2151,7 +2155,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2251,18 +2255,6 @@
     <xf numFmtId="176" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2301,6 +2293,21 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4652,7 +4659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dpvf0.43newstlGasin</c:v>
+                  <c:v>dpvf0.43newstlGasinHigh</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4787,6 +4794,153 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4E59-406A-8BB2-E0F0F5BCDE88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>V_DP!$N$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dpvf0.43newstlGasinLow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>V_DP!$I$12:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>V_DP!$N$12:$N$27</c:f>
+              <c:numCache>
+                <c:formatCode>General_)</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>51.211574615384599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104.166324871795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.537612820513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>214.07047750000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230.40540769230799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>221.629494871795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220.68736250000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220.6801025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220.65280769230799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>223.59045499999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>215.181125641026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>218.34741641025599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>227.39923250000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>227.413915384615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>224.82405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>226.14931025640999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07E3-4A2E-B6D9-9A4DBAFA8C55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6538,14 +6692,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>607844</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71510</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>48650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6578,8 +6732,8 @@
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -12416,30 +12570,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
       <c r="E1" s="55"/>
       <c r="F1" s="55"/>
       <c r="G1" s="55"/>
       <c r="H1" s="55"/>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
       <c r="U1" s="55"/>
     </row>
     <row r="2" spans="1:21">
@@ -12621,16 +12775,16 @@
       <c r="U5" s="55"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
       <c r="I6" s="55"/>
       <c r="J6" s="55">
         <v>0</v>
@@ -12850,12 +13004,12 @@
       <c r="U10" s="55"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
@@ -13063,12 +13217,12 @@
       <c r="U15" s="55"/>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
@@ -13276,14 +13430,14 @@
       <c r="U20" s="55"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
       <c r="I21" s="55"/>
@@ -41444,8 +41598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625480FF-265A-4FCF-9932-4795234AB610}">
   <dimension ref="A1:FY200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -42715,19 +42869,19 @@
       <c r="G9" t="s">
         <v>214</v>
       </c>
-      <c r="I9" s="71" t="s">
+      <c r="I9" s="67" t="s">
         <v>462</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="68">
         <v>23.009645846749201</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="71" t="s">
+      <c r="L9" s="67" t="s">
         <v>471</v>
       </c>
-      <c r="M9" s="80">
+      <c r="M9" s="76">
         <v>188.88308538424201</v>
       </c>
       <c r="N9" s="30" t="s">
@@ -42757,15 +42911,15 @@
       <c r="G10" t="s">
         <v>215</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="75">
+      <c r="I10" s="70"/>
+      <c r="J10" s="71">
         <v>0.23009645846749208</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="72" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="48"/>
-      <c r="M10" s="81"/>
+      <c r="M10" s="77"/>
     </row>
     <row r="11" spans="1:181">
       <c r="A11" t="s">
@@ -42790,19 +42944,22 @@
       <c r="G11" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="73" t="s">
         <v>458</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="73" t="s">
         <v>460</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="K11" s="73" t="s">
         <v>459</v>
       </c>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="74" t="s">
         <v>463</v>
       </c>
-      <c r="M11" s="82" t="s">
+      <c r="M11" s="78" t="s">
+        <v>474</v>
+      </c>
+      <c r="N11" s="84" t="s">
         <v>473</v>
       </c>
     </row>
@@ -42829,20 +42986,23 @@
       <c r="G12" t="s">
         <v>217</v>
       </c>
-      <c r="I12" s="77">
+      <c r="I12" s="73">
         <v>0.05</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="73">
         <v>32.222455128205098</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="73">
         <v>32.222424102564098</v>
       </c>
-      <c r="L12" s="78">
+      <c r="L12" s="74">
         <v>32.5019961538462</v>
       </c>
-      <c r="M12" s="83">
+      <c r="M12" s="79">
         <v>52.699129999999997</v>
+      </c>
+      <c r="N12" s="84">
+        <v>51.211574615384599</v>
       </c>
     </row>
     <row r="13" spans="1:181">
@@ -42868,20 +43028,23 @@
       <c r="G13" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="77">
+      <c r="I13" s="73">
         <v>0.1</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="73">
         <v>65.712307692307704</v>
       </c>
-      <c r="K13" s="77">
+      <c r="K13" s="73">
         <v>65.712245641025604</v>
       </c>
-      <c r="L13" s="78">
+      <c r="L13" s="74">
         <v>66.284885897435899</v>
       </c>
-      <c r="M13" s="83">
+      <c r="M13" s="79">
         <v>107.28843512820499</v>
+      </c>
+      <c r="N13" s="84">
+        <v>104.166324871795</v>
       </c>
     </row>
     <row r="14" spans="1:181">
@@ -42907,20 +43070,23 @@
       <c r="G14" t="s">
         <v>219</v>
       </c>
-      <c r="I14" s="77">
+      <c r="I14" s="73">
         <v>0.15</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="73">
         <v>100.380762307692</v>
       </c>
-      <c r="K14" s="77">
+      <c r="K14" s="73">
         <v>100.381103589744</v>
       </c>
-      <c r="L14" s="78">
+      <c r="L14" s="74">
         <v>101.23896256410301</v>
       </c>
-      <c r="M14" s="83">
+      <c r="M14" s="79">
         <v>163.48092820512801</v>
+      </c>
+      <c r="N14" s="84">
+        <v>158.537612820513</v>
       </c>
     </row>
     <row r="15" spans="1:181">
@@ -42946,20 +43112,23 @@
       <c r="G15" t="s">
         <v>220</v>
       </c>
-      <c r="I15" s="77">
+      <c r="I15" s="73">
         <v>0.2</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="73">
         <v>135.94047499999999</v>
       </c>
-      <c r="K15" s="77">
+      <c r="K15" s="73">
         <v>135.94017249999999</v>
       </c>
-      <c r="L15" s="78">
+      <c r="L15" s="74">
         <v>137.02705499999999</v>
       </c>
-      <c r="M15" s="83">
+      <c r="M15" s="79">
         <v>219.98011750000001</v>
+      </c>
+      <c r="N15" s="84">
+        <v>214.07047750000001</v>
       </c>
     </row>
     <row r="16" spans="1:181">
@@ -42985,23 +43154,26 @@
       <c r="G16" t="s">
         <v>221</v>
       </c>
-      <c r="I16" s="77">
+      <c r="I16" s="73">
         <v>0.25</v>
       </c>
-      <c r="J16" s="77">
+      <c r="J16" s="73">
         <v>156.73471282051301</v>
       </c>
-      <c r="K16" s="77">
+      <c r="K16" s="73">
         <v>156.75705128205101</v>
       </c>
-      <c r="L16" s="78">
+      <c r="L16" s="74">
         <v>157.48212051282101</v>
       </c>
-      <c r="M16" s="83">
+      <c r="M16" s="79">
         <v>224.96413076923099</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="84">
+        <v>230.40540769230799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -43024,23 +43196,26 @@
       <c r="G17" t="s">
         <v>222</v>
       </c>
-      <c r="I17" s="77">
+      <c r="I17" s="73">
         <v>0.3</v>
       </c>
-      <c r="J17" s="77">
+      <c r="J17" s="73">
         <v>161.28121025640999</v>
       </c>
-      <c r="K17" s="77">
+      <c r="K17" s="73">
         <v>161.25887179487199</v>
       </c>
-      <c r="L17" s="78">
+      <c r="L17" s="74">
         <v>161.83936153846199</v>
       </c>
-      <c r="M17" s="83">
+      <c r="M17" s="79">
         <v>221.03876666666699</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="84">
+        <v>221.629494871795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -43063,23 +43238,26 @@
       <c r="G18" t="s">
         <v>223</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="73">
         <v>0.35</v>
       </c>
-      <c r="J18" s="77">
+      <c r="J18" s="73">
         <v>163.93140500000001</v>
       </c>
-      <c r="K18" s="77">
+      <c r="K18" s="73">
         <v>164.04272499999999</v>
       </c>
-      <c r="L18" s="78">
+      <c r="L18" s="74">
         <v>164.36367749999999</v>
       </c>
-      <c r="M18" s="83">
+      <c r="M18" s="79">
         <v>220.97110749999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="84">
+        <v>220.68736250000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -43102,23 +43280,26 @@
       <c r="G19" t="s">
         <v>224</v>
       </c>
-      <c r="I19" s="77">
+      <c r="I19" s="73">
         <v>0.4</v>
       </c>
-      <c r="J19" s="77">
+      <c r="J19" s="73">
         <v>164.18641249999999</v>
       </c>
-      <c r="K19" s="77">
+      <c r="K19" s="73">
         <v>164.05543</v>
       </c>
-      <c r="L19" s="78">
+      <c r="L19" s="74">
         <v>165.07909000000001</v>
       </c>
-      <c r="M19" s="83">
+      <c r="M19" s="79">
         <v>221.14262500000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="84">
+        <v>220.6801025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -43141,23 +43322,26 @@
       <c r="G20" t="s">
         <v>225</v>
       </c>
-      <c r="I20" s="77">
+      <c r="I20" s="73">
         <v>0.45</v>
       </c>
-      <c r="J20" s="77">
+      <c r="J20" s="73">
         <v>163.007787179487</v>
       </c>
-      <c r="K20" s="77">
+      <c r="K20" s="73">
         <v>161.51514358974401</v>
       </c>
-      <c r="L20" s="78">
+      <c r="L20" s="74">
         <v>163.060841025641</v>
       </c>
-      <c r="M20" s="83">
+      <c r="M20" s="79">
         <v>223.04302307692299</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="84">
+        <v>220.65280769230799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -43180,23 +43364,26 @@
       <c r="G21" t="s">
         <v>226</v>
       </c>
-      <c r="I21" s="77">
+      <c r="I21" s="73">
         <v>0.5</v>
       </c>
-      <c r="J21" s="77">
+      <c r="J21" s="73">
         <v>159.72105875</v>
       </c>
-      <c r="K21" s="77">
+      <c r="K21" s="73">
         <v>158.52470149999999</v>
       </c>
-      <c r="L21" s="78">
+      <c r="L21" s="74">
         <v>160.26755524999999</v>
       </c>
-      <c r="M21" s="83">
+      <c r="M21" s="79">
         <v>221.688335</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="84">
+        <v>223.59045499999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>142</v>
       </c>
@@ -43219,21 +43406,24 @@
       <c r="G22" t="s">
         <v>227</v>
       </c>
-      <c r="I22" s="77">
+      <c r="I22" s="73">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J22" s="77">
+      <c r="J22" s="73">
         <v>156.918818974359</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="78">
+      <c r="K22" s="75"/>
+      <c r="L22" s="74">
         <v>159.281731794872</v>
       </c>
-      <c r="M22" s="83">
+      <c r="M22" s="79">
         <v>216.24561538461501</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="84">
+        <v>215.181125641026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -43256,21 +43446,24 @@
       <c r="G23" t="s">
         <v>228</v>
       </c>
-      <c r="I23" s="77">
+      <c r="I23" s="73">
         <v>0.6</v>
       </c>
-      <c r="J23" s="77">
+      <c r="J23" s="73">
         <v>161.956142051282</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="78">
+      <c r="K23" s="75"/>
+      <c r="L23" s="74">
         <v>163.51518051282099</v>
       </c>
-      <c r="M23" s="83">
+      <c r="M23" s="79">
         <v>223.23476153846201</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="84">
+        <v>218.34741641025599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -43293,21 +43486,24 @@
       <c r="G24" t="s">
         <v>229</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="73">
         <v>0.65</v>
       </c>
-      <c r="J24" s="77">
+      <c r="J24" s="73">
         <v>161.20088874999999</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="78">
+      <c r="K24" s="75"/>
+      <c r="L24" s="74">
         <v>161.83223649999999</v>
       </c>
-      <c r="M24" s="83">
+      <c r="M24" s="79">
         <v>219.582088</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="84">
+        <v>227.39923250000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -43330,21 +43526,24 @@
       <c r="G25" t="s">
         <v>230</v>
       </c>
-      <c r="I25" s="77">
+      <c r="I25" s="73">
         <v>0.7</v>
       </c>
-      <c r="J25" s="77">
+      <c r="J25" s="73">
         <v>168.32291384615399</v>
       </c>
-      <c r="K25" s="79"/>
-      <c r="L25" s="78">
+      <c r="K25" s="75"/>
+      <c r="L25" s="74">
         <v>168.28980948717901</v>
       </c>
-      <c r="M25" s="83">
+      <c r="M25" s="79">
         <v>227.345038461538</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="84">
+        <v>227.413915384615</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -43367,21 +43566,24 @@
       <c r="G26" t="s">
         <v>231</v>
       </c>
-      <c r="I26" s="77">
+      <c r="I26" s="73">
         <v>0.75</v>
       </c>
-      <c r="J26" s="77">
+      <c r="J26" s="73">
         <v>170.73399474999999</v>
       </c>
-      <c r="K26" s="79"/>
-      <c r="L26" s="78">
+      <c r="K26" s="75"/>
+      <c r="L26" s="74">
         <v>170.45188325000001</v>
       </c>
-      <c r="M26" s="83">
+      <c r="M26" s="79">
         <v>228.80736999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="84">
+        <v>224.82405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -43404,21 +43606,24 @@
       <c r="G27" t="s">
         <v>232</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="73">
         <v>0.8</v>
       </c>
-      <c r="J27" s="77">
+      <c r="J27" s="73">
         <v>170.527782051282</v>
       </c>
-      <c r="K27" s="79"/>
-      <c r="L27" s="78">
+      <c r="K27" s="75"/>
+      <c r="L27" s="74">
         <v>173.596186923077</v>
       </c>
-      <c r="M27" s="83">
+      <c r="M27" s="79">
         <v>228.70551282051301</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="84">
+        <v>226.14931025640999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -43441,13 +43646,13 @@
       <c r="G28" t="s">
         <v>233</v>
       </c>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -43477,7 +43682,7 @@
         <v>188.88308538424201</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -43501,7 +43706,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>142</v>
       </c>
@@ -43525,7 +43730,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -46984,8 +47189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E209E1E1-E7F4-4767-A171-44374C246217}">
   <dimension ref="A1:L177"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -51494,38 +51699,38 @@
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="P8" s="67" t="s">
+      <c r="P8" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
     </row>
     <row r="23" spans="1:5" ht="13.2">
       <c r="A23" s="17" t="s">
@@ -52256,24 +52461,24 @@
       <c r="P19" s="65"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="36" spans="20:20">
       <c r="T36" s="64" t="s">
@@ -52902,33 +53107,33 @@
       <c r="N20" s="17"/>
     </row>
     <row r="24" spans="1:14" ht="11.7" customHeight="1">
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -53195,24 +53400,24 @@
       <c r="H19" s="17"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
